--- a/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC73166-04CD-4AD9-BD37-8E66207B1194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -807,22 +808,25 @@
     <t>7/5,6,7/2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
     <t>7/5,8/2022</t>
   </si>
   <si>
     <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1508,7 +1512,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1525,25 +1529,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K476" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1850,34 +1854,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K475"/>
+  <dimension ref="A2:K476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A339" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1896" topLeftCell="A328" activePane="bottomLeft"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1902,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +1922,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1942,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="H5" s="26" t="s">
         <v>17</v>
@@ -1946,7 +1950,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -1959,7 +1963,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
@@ -1976,7 +1980,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
         <v>22</v>
@@ -2020,7 +2024,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.14400000000003</v>
+        <v>134.39400000000003</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="str">
@@ -2030,12 +2034,12 @@
       <c r="H9" s="10"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.29200000000003</v>
+        <v>245.54200000000003</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2054,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>37851</v>
       </c>
@@ -2075,7 +2079,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <f>EDATE(A11,1)</f>
         <v>37882</v>
@@ -2102,7 +2106,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <f t="shared" ref="A13:A15" si="0">EDATE(A12,1)</f>
         <v>37912</v>
@@ -2129,7 +2133,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>37943</v>
@@ -2160,7 +2164,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>37973</v>
@@ -2191,7 +2195,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2219,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>37987</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <f>EDATE(A17,1)</f>
         <v>38018</v>
@@ -2276,7 +2280,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <f t="shared" ref="A19:A28" si="2">EDATE(A18,1)</f>
         <v>38047</v>
@@ -2307,7 +2311,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -2338,7 +2342,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -2369,7 +2373,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -2396,7 +2400,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -2423,7 +2427,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -2450,7 +2454,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -2477,7 +2481,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -2504,7 +2508,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <f>EDATE(A26,1)</f>
         <v>38292</v>
@@ -2531,7 +2535,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -2558,7 +2562,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>68</v>
       </c>
@@ -2582,7 +2586,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>38353</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <f>EDATE(A30,1)</f>
         <v>38384</v>
@@ -2643,7 +2647,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <f t="shared" ref="A32:A40" si="3">EDATE(A31,1)</f>
         <v>38412</v>
@@ -2674,7 +2678,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -2705,7 +2709,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <f t="shared" si="3"/>
         <v>38473</v>
@@ -2732,7 +2736,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <f t="shared" si="3"/>
         <v>38504</v>
@@ -2759,7 +2763,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <f t="shared" si="3"/>
         <v>38534</v>
@@ -2786,7 +2790,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <f t="shared" si="3"/>
         <v>38565</v>
@@ -2813,7 +2817,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <f t="shared" si="3"/>
         <v>38596</v>
@@ -2840,7 +2844,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <f t="shared" si="3"/>
         <v>38626</v>
@@ -2867,7 +2871,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <f t="shared" si="3"/>
         <v>38657</v>
@@ -2894,7 +2898,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <f>EDATE(A40,1)</f>
         <v>38687</v>
@@ -2921,7 +2925,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>38718</v>
       </c>
@@ -2975,7 +2979,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -3006,7 +3010,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <f t="shared" ref="A45:A55" si="4">EDATE(A44,1)</f>
         <v>38777</v>
@@ -3039,7 +3043,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -3066,7 +3070,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -3099,7 +3103,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -3126,7 +3130,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -3153,7 +3157,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -3184,7 +3188,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -3215,7 +3219,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -3248,7 +3252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="19" t="s">
         <v>90</v>
@@ -3271,7 +3275,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
         <f>EDATE(A52,1)</f>
         <v>39022</v>
@@ -3298,7 +3302,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -3329,7 +3333,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>81</v>
       </c>
@@ -3353,7 +3357,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="22">
         <v>39083</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="19" t="s">
         <v>94</v>
@@ -3411,7 +3415,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
         <f>EDATE(A57,1)</f>
         <v>39114</v>
@@ -3444,7 +3448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="19" t="s">
         <v>96</v>
@@ -3470,7 +3474,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <f>EDATE(A59,1)</f>
         <v>39142</v>
@@ -3503,7 +3507,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="19" t="s">
         <v>99</v>
@@ -3529,7 +3533,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <f>EDATE(A61,1)</f>
         <v>39173</v>
@@ -3560,7 +3564,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <f t="shared" ref="A64:A73" si="5">EDATE(A63,1)</f>
         <v>39203</v>
@@ -3591,7 +3595,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
         <f t="shared" si="5"/>
         <v>39234</v>
@@ -3622,7 +3626,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <f t="shared" si="5"/>
         <v>39264</v>
@@ -3655,7 +3659,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="22">
         <f t="shared" si="5"/>
         <v>39295</v>
@@ -3686,7 +3690,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <f t="shared" si="5"/>
         <v>39326</v>
@@ -3717,7 +3721,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="22">
         <f t="shared" si="5"/>
         <v>39356</v>
@@ -3748,7 +3752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="19" t="s">
         <v>88</v>
@@ -3773,7 +3777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="19" t="s">
         <v>108</v>
@@ -3796,7 +3800,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <f>EDATE(A69,1)</f>
         <v>39387</v>
@@ -3827,7 +3831,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <f t="shared" si="5"/>
         <v>39417</v>
@@ -3858,7 +3862,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="46" t="s">
         <v>82</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <v>39448</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="J75" s="10"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <f>EDATE(A75,1)</f>
         <v>39479</v>
@@ -3945,7 +3949,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="19" t="s">
         <v>115</v>
@@ -3968,7 +3972,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <f>EDATE(A76,1)</f>
         <v>39508</v>
@@ -3999,7 +4003,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
         <f t="shared" ref="A79:A86" si="7">EDATE(A78,1)</f>
         <v>39539</v>
@@ -4032,7 +4036,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="19" t="s">
         <v>117</v>
@@ -4055,7 +4059,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="22">
         <f>EDATE(A79,1)</f>
         <v>39569</v>
@@ -4088,7 +4092,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="19" t="s">
         <v>119</v>
@@ -4111,7 +4115,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="22">
         <f>EDATE(A81,1)</f>
         <v>39600</v>
@@ -4142,7 +4146,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="22">
         <f t="shared" si="7"/>
         <v>39630</v>
@@ -4173,7 +4177,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="22">
         <f t="shared" si="7"/>
         <v>39661</v>
@@ -4204,7 +4208,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
         <f t="shared" si="7"/>
         <v>39692</v>
@@ -4237,7 +4241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="19" t="s">
         <v>125</v>
@@ -4260,7 +4264,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="22">
         <f>EDATE(A86,1)</f>
         <v>39722</v>
@@ -4293,7 +4297,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
       <c r="B89" s="19" t="s">
         <v>98</v>
@@ -4318,7 +4322,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="19" t="s">
         <v>126</v>
@@ -4341,7 +4345,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="22">
         <f>EDATE(A88,1)</f>
         <v>39753</v>
@@ -4374,7 +4378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="B92" s="19" t="s">
         <v>129</v>
@@ -4397,7 +4401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="22"/>
       <c r="B93" s="19" t="s">
         <v>130</v>
@@ -4420,7 +4424,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
         <f>EDATE(A91,1)</f>
         <v>39783</v>
@@ -4451,7 +4455,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>111</v>
       </c>
@@ -4475,7 +4479,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="22">
         <v>39814</v>
       </c>
@@ -4501,7 +4505,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
         <f>EDATE(A96,1)</f>
         <v>39845</v>
@@ -4534,7 +4538,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
       <c r="B98" s="19" t="s">
         <v>133</v>
@@ -4559,7 +4563,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="22"/>
       <c r="B99" s="19" t="s">
         <v>83</v>
@@ -4582,7 +4586,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="22">
         <f>EDATE(A97,1)</f>
         <v>39873</v>
@@ -4615,7 +4619,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
       <c r="B101" s="19" t="s">
         <v>135</v>
@@ -4638,7 +4642,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="19"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="22">
         <f>EDATE(A100,1)</f>
         <v>39904</v>
@@ -4671,7 +4675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
       <c r="B103" s="19" t="s">
         <v>98</v>
@@ -4696,7 +4700,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="19" t="s">
         <v>136</v>
@@ -4719,7 +4723,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="22">
         <f>EDATE(A102,1)</f>
         <v>39934</v>
@@ -4750,7 +4754,7 @@
       <c r="J105" s="10"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="22">
         <f>EDATE(A105,1)</f>
         <v>39965</v>
@@ -4781,7 +4785,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="19"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
         <f t="shared" ref="A107:A111" si="8">EDATE(A106,1)</f>
         <v>39995</v>
@@ -4812,7 +4816,7 @@
       <c r="J107" s="10"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="22">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -4845,7 +4849,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="B109" s="19" t="s">
         <v>141</v>
@@ -4868,7 +4872,7 @@
       <c r="J109" s="10"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="22">
         <f>EDATE(A108,1)</f>
         <v>40057</v>
@@ -4899,7 +4903,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="19"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="22">
         <f t="shared" si="8"/>
         <v>40087</v>
@@ -4932,7 +4936,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
       <c r="B112" s="19" t="s">
         <v>98</v>
@@ -4957,7 +4961,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="B113" s="19" t="s">
         <v>105</v>
@@ -4980,7 +4984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="22"/>
       <c r="B114" s="19" t="s">
         <v>144</v>
@@ -5003,7 +5007,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="22">
         <f>EDATE(A111,1)</f>
         <v>40118</v>
@@ -5036,7 +5040,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="19" t="s">
         <v>145</v>
@@ -5059,7 +5063,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="19"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="22">
         <f>EDATE(A115,1)</f>
         <v>40148</v>
@@ -5092,7 +5096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="22"/>
       <c r="B118" s="19" t="s">
         <v>148</v>
@@ -5115,7 +5119,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="46" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5143,7 @@
       <c r="J119" s="10"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="22">
         <v>40179</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="19"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
         <f>EDATE(A120,1)</f>
         <v>40210</v>
@@ -5202,7 +5206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="22"/>
       <c r="B122" s="19" t="s">
         <v>114</v>
@@ -5227,7 +5231,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="22"/>
       <c r="B123" s="19" t="s">
         <v>123</v>
@@ -5252,7 +5256,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
       <c r="B124" s="19" t="s">
         <v>150</v>
@@ -5275,7 +5279,7 @@
       <c r="J124" s="10"/>
       <c r="K124" s="19"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
         <f>EDATE(A121,1)</f>
         <v>40238</v>
@@ -5306,7 +5310,7 @@
       <c r="J125" s="10"/>
       <c r="K125" s="19"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="22">
         <f t="shared" ref="A126:A142" si="9">EDATE(A125,1)</f>
         <v>40269</v>
@@ -5337,7 +5341,7 @@
       <c r="J126" s="10"/>
       <c r="K126" s="19"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
         <f t="shared" si="9"/>
         <v>40299</v>
@@ -5370,7 +5374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
       <c r="B128" s="19" t="s">
         <v>98</v>
@@ -5395,7 +5399,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="22"/>
       <c r="B129" s="19" t="s">
         <v>156</v>
@@ -5418,7 +5422,7 @@
       <c r="J129" s="10"/>
       <c r="K129" s="19"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="22">
         <f>EDATE(A127,1)</f>
         <v>40330</v>
@@ -5451,7 +5455,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
       <c r="B131" s="19" t="s">
         <v>158</v>
@@ -5474,7 +5478,7 @@
       <c r="J131" s="10"/>
       <c r="K131" s="19"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="22">
         <f>EDATE(A130,1)</f>
         <v>40360</v>
@@ -5507,7 +5511,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="19" t="s">
         <v>98</v>
@@ -5532,7 +5536,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="19" t="s">
         <v>159</v>
@@ -5555,7 +5559,7 @@
       <c r="J134" s="10"/>
       <c r="K134" s="19"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <f>EDATE(A132,1)</f>
         <v>40391</v>
@@ -5586,7 +5590,7 @@
       <c r="J135" s="10"/>
       <c r="K135" s="19"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="22">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -5619,7 +5623,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="19" t="s">
         <v>114</v>
@@ -5644,7 +5648,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="19" t="s">
         <v>98</v>
@@ -5669,7 +5673,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="19" t="s">
         <v>98</v>
@@ -5694,7 +5698,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="19" t="s">
         <v>129</v>
@@ -5717,7 +5721,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="22">
         <f>EDATE(A136,1)</f>
         <v>40452</v>
@@ -5750,7 +5754,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="22">
         <f t="shared" si="9"/>
         <v>40483</v>
@@ -5781,7 +5785,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="22">
         <f>EDATE(A142,1)</f>
         <v>40513</v>
@@ -5814,7 +5818,7 @@
         <v>47453</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="19" t="s">
         <v>146</v>
@@ -5840,7 +5844,7 @@
       <c r="J144" s="10"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="19" t="s">
         <v>165</v>
@@ -5866,7 +5870,7 @@
       <c r="J145" s="10"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="46" t="s">
         <v>166</v>
       </c>
@@ -5890,7 +5894,7 @@
       <c r="J146" s="10"/>
       <c r="K146" s="19"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="22">
         <v>40544</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="19" t="s">
         <v>167</v>
@@ -5945,7 +5949,7 @@
       <c r="J148" s="10"/>
       <c r="K148" s="19"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="22">
         <f>EDATE(A147,1)</f>
         <v>40575</v>
@@ -5976,7 +5980,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="19" t="s">
         <v>146</v>
@@ -6001,7 +6005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="22"/>
       <c r="B151" s="19" t="s">
         <v>170</v>
@@ -6024,7 +6028,7 @@
       <c r="J151" s="10"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="22">
         <f>EDATE(A149,1)</f>
         <v>40603</v>
@@ -6055,7 +6059,7 @@
       <c r="J152" s="10"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="22">
         <f t="shared" ref="A153:A168" si="11">EDATE(A152,1)</f>
         <v>40634</v>
@@ -6086,7 +6090,7 @@
       <c r="J153" s="10"/>
       <c r="K153" s="19"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="22">
         <f t="shared" si="11"/>
         <v>40664</v>
@@ -6117,7 +6121,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="19" t="s">
         <v>91</v>
@@ -6142,7 +6146,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="19" t="s">
         <v>173</v>
@@ -6165,7 +6169,7 @@
       <c r="J156" s="10"/>
       <c r="K156" s="19"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="22">
         <f>EDATE(A154,1)</f>
         <v>40695</v>
@@ -6196,7 +6200,7 @@
       <c r="J157" s="10"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="22">
         <f t="shared" si="11"/>
         <v>40725</v>
@@ -6227,7 +6231,7 @@
       <c r="J158" s="10"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="22">
         <f t="shared" si="11"/>
         <v>40756</v>
@@ -6260,7 +6264,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="22"/>
       <c r="B160" s="19" t="s">
         <v>177</v>
@@ -6283,7 +6287,7 @@
       <c r="J160" s="10"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="22">
         <f>EDATE(A159,1)</f>
         <v>40787</v>
@@ -6316,7 +6320,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="22"/>
       <c r="B162" s="19" t="s">
         <v>105</v>
@@ -6339,7 +6343,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="22"/>
       <c r="B163" s="19" t="s">
         <v>178</v>
@@ -6362,7 +6366,7 @@
       <c r="J163" s="10"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="22">
         <f>EDATE(A161,1)</f>
         <v>40817</v>
@@ -6395,7 +6399,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="22"/>
       <c r="B165" s="19" t="s">
         <v>91</v>
@@ -6420,7 +6424,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="22"/>
       <c r="B166" s="19" t="s">
         <v>180</v>
@@ -6443,7 +6447,7 @@
       <c r="J166" s="10"/>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="22">
         <f>EDATE(A164,1)</f>
         <v>40848</v>
@@ -6474,7 +6478,7 @@
       <c r="J167" s="10"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="22">
         <f t="shared" si="11"/>
         <v>40878</v>
@@ -6507,7 +6511,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="19" t="s">
         <v>182</v>
@@ -6533,7 +6537,7 @@
       <c r="J169" s="10"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
         <v>183</v>
       </c>
@@ -6557,7 +6561,7 @@
       <c r="J170" s="10"/>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="22">
         <v>40909</v>
       </c>
@@ -6587,7 +6591,7 @@
       <c r="J171" s="10"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="22">
         <f>EDATE(A171,1)</f>
         <v>40940</v>
@@ -6620,7 +6624,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="22"/>
       <c r="B173" s="19" t="s">
         <v>185</v>
@@ -6643,7 +6647,7 @@
       <c r="J173" s="10"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="22">
         <f>EDATE(A172,1)</f>
         <v>40969</v>
@@ -6674,7 +6678,7 @@
       <c r="J174" s="10"/>
       <c r="K174" s="19"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="22">
         <f t="shared" ref="A175:A181" si="12">EDATE(A174,1)</f>
         <v>41000</v>
@@ -6701,7 +6705,7 @@
       <c r="J175" s="10"/>
       <c r="K175" s="19"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="22">
         <f t="shared" si="12"/>
         <v>41030</v>
@@ -6734,7 +6738,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="22">
         <f t="shared" si="12"/>
         <v>41061</v>
@@ -6765,7 +6769,7 @@
       <c r="J177" s="10"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="22">
         <f t="shared" si="12"/>
         <v>41091</v>
@@ -6796,7 +6800,7 @@
       <c r="J178" s="10"/>
       <c r="K178" s="19"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="22">
         <f t="shared" si="12"/>
         <v>41122</v>
@@ -6827,7 +6831,7 @@
       <c r="J179" s="10"/>
       <c r="K179" s="19"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="22">
         <f t="shared" si="12"/>
         <v>41153</v>
@@ -6858,7 +6862,7 @@
       <c r="J180" s="10"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="22">
         <f t="shared" si="12"/>
         <v>41183</v>
@@ -6889,7 +6893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="22"/>
       <c r="B182" s="19" t="s">
         <v>105</v>
@@ -6912,7 +6916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="22"/>
       <c r="B183" s="19" t="s">
         <v>98</v>
@@ -6937,7 +6941,7 @@
         <v>47392</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="22"/>
       <c r="B184" s="19" t="s">
         <v>105</v>
@@ -6960,7 +6964,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="22"/>
       <c r="B185" s="19" t="s">
         <v>193</v>
@@ -6983,7 +6987,7 @@
       <c r="J185" s="10"/>
       <c r="K185" s="19"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="22">
         <f>EDATE(A181,1)</f>
         <v>41214</v>
@@ -7016,7 +7020,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="22"/>
       <c r="B187" s="19" t="s">
         <v>197</v>
@@ -7042,7 +7046,7 @@
       <c r="J187" s="10"/>
       <c r="K187" s="19"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="22">
         <f>EDATE(A186,1)</f>
         <v>41244</v>
@@ -7073,7 +7077,7 @@
       <c r="J188" s="10"/>
       <c r="K188" s="19"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="46" t="s">
         <v>199</v>
       </c>
@@ -7097,7 +7101,7 @@
       <c r="J189" s="10"/>
       <c r="K189" s="19"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="22">
         <v>41275</v>
       </c>
@@ -7129,7 +7133,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="22"/>
       <c r="B191" s="19" t="s">
         <v>105</v>
@@ -7152,7 +7156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="22"/>
       <c r="B192" s="19" t="s">
         <v>201</v>
@@ -7175,7 +7179,7 @@
       <c r="J192" s="10"/>
       <c r="K192" s="19"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="22">
         <f>EDATE(A190,1)</f>
         <v>41306</v>
@@ -7208,7 +7212,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="22"/>
       <c r="B194" s="19" t="s">
         <v>129</v>
@@ -7231,7 +7235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="22"/>
       <c r="B195" s="19" t="s">
         <v>202</v>
@@ -7254,7 +7258,7 @@
       <c r="J195" s="10"/>
       <c r="K195" s="19"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="22">
         <f>EDATE(A193,1)</f>
         <v>41334</v>
@@ -7285,7 +7289,7 @@
       <c r="J196" s="10"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="22">
         <f t="shared" ref="A197:A207" si="13">EDATE(A196,1)</f>
         <v>41365</v>
@@ -7312,7 +7316,7 @@
       <c r="J197" s="10"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="22">
         <f t="shared" si="13"/>
         <v>41395</v>
@@ -7343,7 +7347,7 @@
       <c r="J198" s="10"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="22">
         <f t="shared" si="13"/>
         <v>41426</v>
@@ -7374,7 +7378,7 @@
       <c r="J199" s="10"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="22">
         <f t="shared" si="13"/>
         <v>41456</v>
@@ -7407,7 +7411,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="22"/>
       <c r="B201" s="19" t="s">
         <v>114</v>
@@ -7432,7 +7436,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="22"/>
       <c r="B202" s="19" t="s">
         <v>207</v>
@@ -7455,7 +7459,7 @@
       <c r="J202" s="10"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="22">
         <f>EDATE(A200,1)</f>
         <v>41487</v>
@@ -7486,7 +7490,7 @@
       <c r="J203" s="10"/>
       <c r="K203" s="19"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="22">
         <f t="shared" si="13"/>
         <v>41518</v>
@@ -7519,7 +7523,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="22"/>
       <c r="B205" s="19" t="s">
         <v>78</v>
@@ -7542,7 +7546,7 @@
       <c r="J205" s="10"/>
       <c r="K205" s="19"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="22">
         <f>EDATE(A204,1)</f>
         <v>41548</v>
@@ -7573,7 +7577,7 @@
       <c r="J206" s="10"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="22">
         <f t="shared" si="13"/>
         <v>41579</v>
@@ -7606,7 +7610,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="22"/>
       <c r="B208" s="19" t="s">
         <v>210</v>
@@ -7629,7 +7633,7 @@
       <c r="J208" s="10"/>
       <c r="K208" s="19"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="22">
         <f>EDATE(A207,1)</f>
         <v>41609</v>
@@ -7662,7 +7666,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="46"/>
       <c r="B210" s="19" t="s">
         <v>211</v>
@@ -7688,7 +7692,7 @@
       <c r="J210" s="10"/>
       <c r="K210" s="19"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="46" t="s">
         <v>212</v>
       </c>
@@ -7712,7 +7716,7 @@
       <c r="J211" s="10"/>
       <c r="K211" s="19"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="22">
         <v>41640</v>
       </c>
@@ -7742,7 +7746,7 @@
       <c r="J212" s="10"/>
       <c r="K212" s="19"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="22">
         <f>EDATE(A212,1)</f>
         <v>41671</v>
@@ -7773,7 +7777,7 @@
       <c r="J213" s="10"/>
       <c r="K213" s="19"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="22">
         <f t="shared" ref="A214:A225" si="15">EDATE(A213,1)</f>
         <v>41699</v>
@@ -7804,7 +7808,7 @@
       <c r="J214" s="10"/>
       <c r="K214" s="19"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="22">
         <f t="shared" si="15"/>
         <v>41730</v>
@@ -7837,7 +7841,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="22"/>
       <c r="B216" s="19" t="s">
         <v>215</v>
@@ -7863,7 +7867,7 @@
       <c r="J216" s="10"/>
       <c r="K216" s="19"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="22">
         <f>EDATE(A215,1)</f>
         <v>41760</v>
@@ -7894,7 +7898,7 @@
       <c r="J217" s="10"/>
       <c r="K217" s="19"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="22">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -7927,7 +7931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="22">
         <f t="shared" si="15"/>
         <v>41821</v>
@@ -7958,7 +7962,7 @@
       <c r="J219" s="10"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="22">
         <f t="shared" si="15"/>
         <v>41852</v>
@@ -7989,7 +7993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="22"/>
       <c r="B221" s="19" t="s">
         <v>220</v>
@@ -8012,7 +8016,7 @@
       <c r="J221" s="10"/>
       <c r="K221" s="19"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="22">
         <f>EDATE(A220,1)</f>
         <v>41883</v>
@@ -8043,7 +8047,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="22"/>
       <c r="B223" s="19" t="s">
         <v>218</v>
@@ -8066,7 +8070,7 @@
       <c r="J223" s="10"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="22">
         <f>EDATE(A222,1)</f>
         <v>41913</v>
@@ -8097,7 +8101,7 @@
       <c r="J224" s="10"/>
       <c r="K224" s="19"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="22">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -8128,7 +8132,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="22"/>
       <c r="B226" s="19" t="s">
         <v>159</v>
@@ -8151,7 +8155,7 @@
       <c r="J226" s="10"/>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="22">
         <f>EDATE(A225,1)</f>
         <v>41974</v>
@@ -8182,7 +8186,7 @@
       <c r="J227" s="10"/>
       <c r="K227" s="19"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="46" t="s">
         <v>225</v>
       </c>
@@ -8206,7 +8210,7 @@
       <c r="J228" s="10"/>
       <c r="K228" s="19"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="22">
         <v>42005</v>
       </c>
@@ -8236,7 +8240,7 @@
       <c r="J229" s="10"/>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="22">
         <f>EDATE(A229,1)</f>
         <v>42036</v>
@@ -8267,7 +8271,7 @@
       <c r="J230" s="10"/>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="22">
         <f t="shared" ref="A231:A242" si="16">EDATE(A230,1)</f>
         <v>42064</v>
@@ -8298,7 +8302,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="22"/>
       <c r="B232" s="19" t="s">
         <v>227</v>
@@ -8321,7 +8325,7 @@
       <c r="J232" s="10"/>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="22">
         <f>EDATE(A231,1)</f>
         <v>42095</v>
@@ -8352,7 +8356,7 @@
       <c r="J233" s="10"/>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="22">
         <f>EDATE(A233,1)</f>
         <v>42125</v>
@@ -8383,7 +8387,7 @@
       <c r="J234" s="10"/>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="22">
         <f>EDATE(A234,1)</f>
         <v>42156</v>
@@ -8414,7 +8418,7 @@
       <c r="J235" s="10"/>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="22">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -8445,7 +8449,7 @@
       <c r="J236" s="10"/>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="22">
         <f t="shared" si="16"/>
         <v>42217</v>
@@ -8476,7 +8480,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="22"/>
       <c r="B238" s="19" t="s">
         <v>232</v>
@@ -8499,7 +8503,7 @@
       <c r="J238" s="10"/>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="22">
         <f>EDATE(A237,1)</f>
         <v>42248</v>
@@ -8532,7 +8536,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="22"/>
       <c r="B240" s="19" t="s">
         <v>234</v>
@@ -8555,7 +8559,7 @@
       <c r="J240" s="10"/>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="22">
         <f>EDATE(A239,1)</f>
         <v>42278</v>
@@ -8586,7 +8590,7 @@
       <c r="J241" s="10"/>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="22">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -8617,7 +8621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="22"/>
       <c r="B243" s="19" t="s">
         <v>91</v>
@@ -8642,7 +8646,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="22"/>
       <c r="B244" s="19" t="s">
         <v>98</v>
@@ -8667,7 +8671,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="22"/>
       <c r="B245" s="19" t="s">
         <v>236</v>
@@ -8690,7 +8694,7 @@
       <c r="J245" s="10"/>
       <c r="K245" s="19"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="22">
         <f>EDATE(A242,1)</f>
         <v>42339</v>
@@ -8721,7 +8725,7 @@
       <c r="J246" s="10"/>
       <c r="K246" s="19"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="46"/>
       <c r="B247" s="19" t="s">
         <v>237</v>
@@ -8747,7 +8751,7 @@
       <c r="J247" s="10"/>
       <c r="K247" s="19"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="46" t="s">
         <v>238</v>
       </c>
@@ -8771,7 +8775,7 @@
       <c r="J248" s="10"/>
       <c r="K248" s="19"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="22">
         <v>42370</v>
       </c>
@@ -8801,7 +8805,7 @@
       <c r="J249" s="10"/>
       <c r="K249" s="19"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="22">
         <f>EDATE(A249,1)</f>
         <v>42401</v>
@@ -8834,7 +8838,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="19" t="s">
         <v>197</v>
@@ -8857,7 +8861,7 @@
       <c r="J251" s="10"/>
       <c r="K251" s="19"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="22">
         <f>EDATE(A250,1)</f>
         <v>42430</v>
@@ -8890,7 +8894,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="22"/>
       <c r="B253" s="19" t="s">
         <v>77</v>
@@ -8913,7 +8917,7 @@
       <c r="J253" s="10"/>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="22">
         <f>EDATE(A252,1)</f>
         <v>42461</v>
@@ -8944,7 +8948,7 @@
       <c r="J254" s="10"/>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="22">
         <f t="shared" ref="A255:A265" si="17">EDATE(A254,1)</f>
         <v>42491</v>
@@ -8975,7 +8979,7 @@
       <c r="J255" s="10"/>
       <c r="K255" s="19"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="22">
         <f t="shared" si="17"/>
         <v>42522</v>
@@ -9006,7 +9010,7 @@
       <c r="J256" s="10"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="22">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -9037,7 +9041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="22"/>
       <c r="B258" s="19" t="s">
         <v>241</v>
@@ -9060,7 +9064,7 @@
       <c r="J258" s="10"/>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="22">
         <f>EDATE(A257,1)</f>
         <v>42583</v>
@@ -9091,7 +9095,7 @@
       <c r="J259" s="10"/>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="22">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -9122,7 +9126,7 @@
       <c r="J260" s="10"/>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="22">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -9155,7 +9159,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="22"/>
       <c r="B262" s="19" t="s">
         <v>105</v>
@@ -9178,7 +9182,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="22"/>
       <c r="B263" s="19" t="s">
         <v>98</v>
@@ -9203,7 +9207,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="22">
         <f>EDATE(A261,1)</f>
         <v>42675</v>
@@ -9230,7 +9234,7 @@
       <c r="J264" s="10"/>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="22">
         <f t="shared" si="17"/>
         <v>42705</v>
@@ -9261,7 +9265,7 @@
       <c r="J265" s="10"/>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="46" t="s">
         <v>246</v>
       </c>
@@ -9285,7 +9289,7 @@
       <c r="J266" s="10"/>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="22">
         <v>42736</v>
       </c>
@@ -9311,7 +9315,7 @@
       <c r="J267" s="10"/>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="22">
         <f>EDATE(A267,1)</f>
         <v>42767</v>
@@ -9344,7 +9348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="22">
         <f t="shared" ref="A269:A277" si="18">EDATE(A268,1)</f>
         <v>42795</v>
@@ -9371,7 +9375,7 @@
       <c r="J269" s="10"/>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="22">
         <f t="shared" si="18"/>
         <v>42826</v>
@@ -9404,7 +9408,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="22">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -9431,7 +9435,7 @@
       <c r="J271" s="10"/>
       <c r="K271" s="19"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="22">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -9458,7 +9462,7 @@
       <c r="J272" s="10"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="22">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -9489,7 +9493,7 @@
       <c r="J273" s="10"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="22">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -9520,7 +9524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="22"/>
       <c r="B275" s="19" t="s">
         <v>247</v>
@@ -9543,7 +9547,7 @@
       <c r="J275" s="10"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="22">
         <f>EDATE(A274,1)</f>
         <v>42979</v>
@@ -9574,7 +9578,7 @@
       <c r="J276" s="10"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="22">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -9605,7 +9609,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="22"/>
       <c r="B278" s="19" t="s">
         <v>85</v>
@@ -9628,7 +9632,7 @@
       <c r="J278" s="10"/>
       <c r="K278" s="19"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="22"/>
       <c r="B279" s="19" t="s">
         <v>250</v>
@@ -9651,7 +9655,7 @@
       <c r="J279" s="10"/>
       <c r="K279" s="19"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="22">
         <f>EDATE(A277,1)</f>
         <v>43040</v>
@@ -9684,7 +9688,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="22">
         <f>EDATE(A280,1)</f>
         <v>43070</v>
@@ -9717,7 +9721,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="46" t="s">
         <v>41</v>
       </c>
@@ -9741,7 +9745,7 @@
       <c r="J282" s="10"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>43101</v>
       </c>
@@ -9767,7 +9771,7 @@
       <c r="J283" s="10"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38">
         <v>43132</v>
       </c>
@@ -9799,7 +9803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38"/>
       <c r="B285" s="19" t="s">
         <v>60</v>
@@ -9827,7 +9831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38">
         <v>43160</v>
       </c>
@@ -9853,7 +9857,7 @@
       <c r="J286" s="10"/>
       <c r="K286" s="19"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38">
         <v>43191</v>
       </c>
@@ -9883,7 +9887,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="39"/>
       <c r="B288" s="14" t="s">
         <v>54</v>
@@ -9911,7 +9915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38">
         <v>43221</v>
       </c>
@@ -9937,7 +9941,7 @@
       <c r="J289" s="10"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38">
         <v>43252</v>
       </c>
@@ -9963,7 +9967,7 @@
       <c r="J290" s="10"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>43282</v>
       </c>
@@ -9989,7 +9993,7 @@
       <c r="J291" s="10"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38">
         <v>43313</v>
       </c>
@@ -10015,7 +10019,7 @@
       <c r="J292" s="10"/>
       <c r="K292" s="19"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38">
         <v>43344</v>
       </c>
@@ -10041,7 +10045,7 @@
       <c r="J293" s="10"/>
       <c r="K293" s="19"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38">
         <v>43374</v>
       </c>
@@ -10067,7 +10071,7 @@
       <c r="J294" s="10"/>
       <c r="K294" s="19"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>43405</v>
       </c>
@@ -10093,7 +10097,7 @@
       <c r="J295" s="10"/>
       <c r="K295" s="19"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38">
         <v>43435</v>
       </c>
@@ -10119,7 +10123,7 @@
       <c r="J296" s="10"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="22" t="s">
         <v>46</v>
       </c>
@@ -10143,7 +10147,7 @@
       <c r="J297" s="10"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>43466</v>
       </c>
@@ -10169,7 +10173,7 @@
       <c r="J298" s="10"/>
       <c r="K298" s="19"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
         <v>43497</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38">
         <v>43525</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38">
         <v>43556</v>
       </c>
@@ -10257,7 +10261,7 @@
       <c r="J301" s="10"/>
       <c r="K301" s="19"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <v>43586</v>
       </c>
@@ -10283,7 +10287,7 @@
       <c r="J302" s="10"/>
       <c r="K302" s="19"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>43617</v>
       </c>
@@ -10309,7 +10313,7 @@
       <c r="J303" s="10"/>
       <c r="K303" s="19"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <v>43647</v>
       </c>
@@ -10335,7 +10339,7 @@
       <c r="J304" s="10"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38">
         <v>43678</v>
       </c>
@@ -10361,7 +10365,7 @@
       <c r="J305" s="10"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>43709</v>
       </c>
@@ -10393,7 +10397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38">
         <v>43739</v>
       </c>
@@ -10419,7 +10423,7 @@
       <c r="J307" s="10"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38">
         <v>43770</v>
       </c>
@@ -10445,7 +10449,7 @@
       <c r="J308" s="10"/>
       <c r="K308" s="19"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38">
         <v>43800</v>
       </c>
@@ -10477,7 +10481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
       <c r="B310" s="19" t="s">
         <v>48</v>
@@ -10505,7 +10509,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
       <c r="B311" s="19" t="s">
         <v>43</v>
@@ -10531,7 +10535,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="22" t="s">
         <v>51</v>
       </c>
@@ -10555,7 +10559,7 @@
       <c r="J312" s="10"/>
       <c r="K312" s="19"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38">
         <v>43831</v>
       </c>
@@ -10581,7 +10585,7 @@
       <c r="J313" s="10"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38">
         <v>43862</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38"/>
       <c r="B315" s="19" t="s">
         <v>54</v>
@@ -10641,7 +10645,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <v>43891</v>
       </c>
@@ -10667,7 +10671,7 @@
       <c r="J316" s="10"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>43922</v>
       </c>
@@ -10693,7 +10697,7 @@
       <c r="J317" s="10"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38">
         <v>43952</v>
       </c>
@@ -10719,7 +10723,7 @@
       <c r="J318" s="10"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38">
         <v>43983</v>
       </c>
@@ -10749,7 +10753,7 @@
       <c r="J319" s="10"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>44013</v>
       </c>
@@ -10775,7 +10779,7 @@
       <c r="J320" s="10"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <v>44044</v>
       </c>
@@ -10801,7 +10805,7 @@
       <c r="J321" s="10"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38">
         <v>44075</v>
       </c>
@@ -10827,7 +10831,7 @@
       <c r="J322" s="10"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38">
         <v>44105</v>
       </c>
@@ -10853,7 +10857,7 @@
       <c r="J323" s="10"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38">
         <v>44136</v>
       </c>
@@ -10879,7 +10883,7 @@
       <c r="J324" s="10"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <v>44166</v>
       </c>
@@ -10909,7 +10913,7 @@
       <c r="J325" s="10"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="46" t="s">
         <v>55</v>
       </c>
@@ -10933,7 +10937,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38">
         <v>44197</v>
       </c>
@@ -10959,7 +10963,7 @@
       <c r="J327" s="10"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38">
         <v>44228</v>
       </c>
@@ -10985,7 +10989,7 @@
       <c r="J328" s="10"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>44256</v>
       </c>
@@ -11011,7 +11015,7 @@
       <c r="J329" s="10"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <v>44287</v>
       </c>
@@ -11037,7 +11041,7 @@
       <c r="J330" s="10"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38">
         <v>44317</v>
       </c>
@@ -11063,7 +11067,7 @@
       <c r="J331" s="10"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <v>44348</v>
       </c>
@@ -11089,7 +11093,7 @@
       <c r="J332" s="10"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38">
         <v>44378</v>
       </c>
@@ -11109,13 +11113,13 @@
       </c>
       <c r="H333" s="37"/>
       <c r="I333" s="52">
-        <f t="shared" ref="I333:I360" si="20">SUM(G333,I332)-H333</f>
+        <f t="shared" ref="I333:I361" si="20">SUM(G333,I332)-H333</f>
         <v>216.542</v>
       </c>
       <c r="J333" s="10"/>
       <c r="K333" s="19"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38">
         <v>44409</v>
       </c>
@@ -11141,7 +11145,7 @@
       <c r="J334" s="10"/>
       <c r="K334" s="19"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38">
         <v>44440</v>
       </c>
@@ -11167,7 +11171,7 @@
       <c r="J335" s="10"/>
       <c r="K335" s="19"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38">
         <v>44470</v>
       </c>
@@ -11193,7 +11197,7 @@
       <c r="J336" s="10"/>
       <c r="K336" s="19"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38">
         <v>44501</v>
       </c>
@@ -11219,7 +11223,7 @@
       <c r="J337" s="10"/>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <v>44531</v>
       </c>
@@ -11251,7 +11255,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38"/>
       <c r="B339" s="19" t="s">
         <v>54</v>
@@ -11279,16 +11283,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B340" s="19"/>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="38"/>
+      <c r="B340" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="C340" s="12"/>
-      <c r="D340" s="37"/>
+      <c r="D340" s="37">
+        <v>2</v>
+      </c>
       <c r="E340" s="52">
-        <f>SUM(C340,E339)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>122.72899999999997</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>134.39400000000003</v>
       </c>
       <c r="F340" s="19"/>
       <c r="G340" s="12" t="str">
@@ -11297,41 +11303,39 @@
       </c>
       <c r="H340" s="37"/>
       <c r="I340" s="52">
-        <f t="shared" si="20"/>
-        <v>222.792</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>245.54200000000003</v>
       </c>
       <c r="J340" s="10"/>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="38">
-        <v>44562</v>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="B341" s="19"/>
-      <c r="C341" s="12">
-        <v>1.25</v>
-      </c>
+      <c r="C341" s="12"/>
       <c r="D341" s="37"/>
       <c r="E341" s="52">
-        <f>SUM(C341,E340)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>123.97899999999997</v>
+        <f>SUM(C341,E339)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>122.72899999999997</v>
       </c>
       <c r="F341" s="19"/>
-      <c r="G341" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G341" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H341" s="37"/>
       <c r="I341" s="52">
-        <f t="shared" si="20"/>
-        <v>224.042</v>
+        <f>SUM(G341,I339)-H341</f>
+        <v>222.792</v>
       </c>
       <c r="J341" s="10"/>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B342" s="19"/>
       <c r="C342" s="12">
@@ -11340,7 +11344,7 @@
       <c r="D342" s="37"/>
       <c r="E342" s="52">
         <f>SUM(C342,E341)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>125.22899999999997</v>
+        <v>123.97899999999997</v>
       </c>
       <c r="F342" s="19"/>
       <c r="G342" s="12">
@@ -11350,14 +11354,14 @@
       <c r="H342" s="37"/>
       <c r="I342" s="52">
         <f t="shared" si="20"/>
-        <v>225.292</v>
+        <v>224.042</v>
       </c>
       <c r="J342" s="10"/>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B343" s="19"/>
       <c r="C343" s="12">
@@ -11366,7 +11370,7 @@
       <c r="D343" s="37"/>
       <c r="E343" s="52">
         <f>SUM(C343,E342)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>126.47899999999997</v>
+        <v>125.22899999999997</v>
       </c>
       <c r="F343" s="19"/>
       <c r="G343" s="12">
@@ -11376,14 +11380,14 @@
       <c r="H343" s="37"/>
       <c r="I343" s="52">
         <f t="shared" si="20"/>
-        <v>226.542</v>
+        <v>225.292</v>
       </c>
       <c r="J343" s="10"/>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B344" s="19"/>
       <c r="C344" s="12">
@@ -11392,7 +11396,7 @@
       <c r="D344" s="37"/>
       <c r="E344" s="52">
         <f>SUM(C344,E343)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>127.72899999999997</v>
+        <v>126.47899999999997</v>
       </c>
       <c r="F344" s="19"/>
       <c r="G344" s="12">
@@ -11402,14 +11406,14 @@
       <c r="H344" s="37"/>
       <c r="I344" s="52">
         <f t="shared" si="20"/>
-        <v>227.792</v>
+        <v>226.542</v>
       </c>
       <c r="J344" s="10"/>
-      <c r="K344" s="19"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K344" s="48"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B345" s="19"/>
       <c r="C345" s="12">
@@ -11418,7 +11422,7 @@
       <c r="D345" s="37"/>
       <c r="E345" s="52">
         <f>SUM(C345,E344)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>128.97899999999998</v>
+        <v>127.72899999999997</v>
       </c>
       <c r="F345" s="19"/>
       <c r="G345" s="12">
@@ -11428,27 +11432,23 @@
       <c r="H345" s="37"/>
       <c r="I345" s="52">
         <f t="shared" si="20"/>
-        <v>229.042</v>
+        <v>227.792</v>
       </c>
       <c r="J345" s="10"/>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
-        <v>44713</v>
-      </c>
-      <c r="B346" s="19" t="s">
-        <v>257</v>
-      </c>
+        <v>44682</v>
+      </c>
+      <c r="B346" s="19"/>
       <c r="C346" s="12">
         <v>1.25</v>
       </c>
-      <c r="D346" s="37">
-        <v>8.500000000000002E-2</v>
-      </c>
+      <c r="D346" s="37"/>
       <c r="E346" s="52">
         <f>SUM(C346,E345)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>130.14399999999998</v>
+        <v>128.97899999999998</v>
       </c>
       <c r="F346" s="19"/>
       <c r="G346" s="12">
@@ -11458,26 +11458,32 @@
       <c r="H346" s="37"/>
       <c r="I346" s="52">
         <f t="shared" si="20"/>
-        <v>230.292</v>
+        <v>229.042</v>
       </c>
       <c r="J346" s="10"/>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="38"/>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="38">
+        <v>44713</v>
+      </c>
       <c r="B347" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C347" s="12"/>
-      <c r="D347" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="C347" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="37">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E347" s="52">
         <f>SUM(C347,E346)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>130.14399999999998</v>
       </c>
       <c r="F347" s="19"/>
-      <c r="G347" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G347" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H347" s="37"/>
       <c r="I347" s="52">
@@ -11485,58 +11491,50 @@
         <v>230.292</v>
       </c>
       <c r="J347" s="10"/>
-      <c r="K347" s="48">
-        <v>44903</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="38">
-        <v>44743</v>
-      </c>
+      <c r="K347" s="19"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="38"/>
       <c r="B348" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C348" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D348" s="37">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C348" s="12"/>
+      <c r="D348" s="37"/>
       <c r="E348" s="52">
         <f>SUM(C348,E347)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>129.39399999999998</v>
+        <v>130.14399999999998</v>
       </c>
       <c r="F348" s="19"/>
-      <c r="G348" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G348" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H348" s="37"/>
       <c r="I348" s="52">
         <f t="shared" si="20"/>
-        <v>231.542</v>
+        <v>230.292</v>
       </c>
       <c r="J348" s="10"/>
-      <c r="K348" s="19" t="s">
+      <c r="K348" s="48">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="38">
+        <v>44743</v>
+      </c>
+      <c r="B349" s="19" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="38">
-        <v>44774</v>
-      </c>
-      <c r="B349" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="C349" s="12">
         <v>1.25</v>
       </c>
       <c r="D349" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E349" s="52">
         <f>SUM(C349,E348)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>129.64399999999998</v>
+        <v>129.39399999999998</v>
       </c>
       <c r="F349" s="19"/>
       <c r="G349" s="12">
@@ -11546,83 +11544,87 @@
       <c r="H349" s="37"/>
       <c r="I349" s="52">
         <f t="shared" si="20"/>
-        <v>232.792</v>
+        <v>231.542</v>
       </c>
       <c r="J349" s="10"/>
-      <c r="K349" s="48">
-        <v>44792</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="38"/>
+      <c r="K349" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="38">
+        <v>44774</v>
+      </c>
       <c r="B350" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C350" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="C350" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="37">
         <v>1</v>
       </c>
       <c r="E350" s="52">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.14400000000003</v>
+        <f>SUM(C350,E349)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>129.64399999999998</v>
       </c>
       <c r="F350" s="19"/>
-      <c r="G350" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="37"/>
       <c r="I350" s="52">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.29200000000003</v>
+        <f t="shared" si="20"/>
+        <v>232.792</v>
       </c>
       <c r="J350" s="10"/>
       <c r="K350" s="48">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="38">
-        <v>44805</v>
-      </c>
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="38"/>
       <c r="B351" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C351" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D351" s="37"/>
+        <v>257</v>
+      </c>
+      <c r="C351" s="12"/>
+      <c r="D351" s="37">
+        <v>1</v>
+      </c>
       <c r="E351" s="52">
-        <f>SUM(C351,E349)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>130.89399999999998</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>134.39400000000003</v>
       </c>
       <c r="F351" s="19"/>
-      <c r="G351" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G351" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H351" s="37"/>
       <c r="I351" s="52">
-        <f>SUM(G351,I349)-H351</f>
-        <v>234.042</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>245.54200000000003</v>
       </c>
       <c r="J351" s="10"/>
-      <c r="K351" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K351" s="48">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38">
-        <v>44835</v>
-      </c>
-      <c r="B352" s="19"/>
+        <v>44805</v>
+      </c>
+      <c r="B352" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C352" s="12">
         <v>1.25</v>
       </c>
       <c r="D352" s="37"/>
       <c r="E352" s="52">
-        <f>SUM(C352,E351)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>132.14399999999998</v>
+        <f>SUM(C352,E350)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>130.89399999999998</v>
       </c>
       <c r="F352" s="19"/>
       <c r="G352" s="12">
@@ -11631,109 +11633,117 @@
       </c>
       <c r="H352" s="37"/>
       <c r="I352" s="52">
-        <f t="shared" si="20"/>
-        <v>235.292</v>
+        <f>SUM(G352,I350)-H352</f>
+        <v>234.042</v>
       </c>
       <c r="J352" s="10"/>
-      <c r="K352" s="19"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K352" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38">
-        <v>44866</v>
-      </c>
-      <c r="B353" s="19" t="s">
-        <v>58</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B353" s="19"/>
       <c r="C353" s="12">
         <v>1.25</v>
       </c>
       <c r="D353" s="37"/>
       <c r="E353" s="52">
         <f>SUM(C353,E352)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>133.39399999999998</v>
+        <v>132.14399999999998</v>
       </c>
       <c r="F353" s="19"/>
       <c r="G353" s="12">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H353" s="37">
-        <v>1</v>
-      </c>
+      <c r="H353" s="37"/>
       <c r="I353" s="52">
         <f t="shared" si="20"/>
-        <v>235.542</v>
+        <v>235.292</v>
       </c>
       <c r="J353" s="10"/>
-      <c r="K353" s="48">
-        <v>44872</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K353" s="19"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38">
-        <v>44896</v>
-      </c>
-      <c r="B354" s="19"/>
-      <c r="C354" s="12"/>
+        <v>44866</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C354" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="37"/>
       <c r="E354" s="52">
         <f>SUM(C354,E353)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>133.39399999999998</v>
       </c>
       <c r="F354" s="19"/>
-      <c r="G354" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H354" s="37"/>
+      <c r="G354" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="37">
+        <v>1</v>
+      </c>
       <c r="I354" s="52">
         <f t="shared" si="20"/>
         <v>235.542</v>
       </c>
       <c r="J354" s="10"/>
-      <c r="K354" s="19"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B355" s="19"/>
-      <c r="C355" s="12"/>
-      <c r="D355" s="37"/>
+      <c r="K354" s="48">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="38">
+        <v>44896</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C355" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="37">
+        <v>1</v>
+      </c>
       <c r="E355" s="52">
         <f>SUM(C355,E354)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>133.39399999999998</v>
+        <v>133.64399999999998</v>
       </c>
       <c r="F355" s="19"/>
-      <c r="G355" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="37"/>
       <c r="I355" s="52">
         <f t="shared" si="20"/>
-        <v>235.542</v>
+        <v>236.792</v>
       </c>
       <c r="J355" s="10"/>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="38">
-        <v>44927</v>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="B356" s="19"/>
-      <c r="C356" s="12">
-        <v>1.25</v>
-      </c>
+      <c r="C356" s="12"/>
       <c r="D356" s="37"/>
       <c r="E356" s="52">
         <f>SUM(C356,E355)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>134.64399999999998</v>
+        <v>133.64399999999998</v>
       </c>
       <c r="F356" s="19"/>
-      <c r="G356" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G356" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H356" s="37"/>
       <c r="I356" s="52">
@@ -11743,22 +11753,18 @@
       <c r="J356" s="10"/>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
-        <v>44958</v>
-      </c>
-      <c r="B357" s="19" t="s">
-        <v>54</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B357" s="19"/>
       <c r="C357" s="12">
         <v>1.25</v>
       </c>
-      <c r="D357" s="37">
-        <v>2</v>
-      </c>
+      <c r="D357" s="37"/>
       <c r="E357" s="52">
         <f>SUM(C357,E356)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>133.89399999999998</v>
+        <v>134.89399999999998</v>
       </c>
       <c r="F357" s="19"/>
       <c r="G357" s="12">
@@ -11771,22 +11777,24 @@
         <v>238.042</v>
       </c>
       <c r="J357" s="10"/>
-      <c r="K357" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K357" s="19"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B358" s="19"/>
+        <v>44958</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="C358" s="12">
         <v>1.25</v>
       </c>
-      <c r="D358" s="37"/>
+      <c r="D358" s="37">
+        <v>2</v>
+      </c>
       <c r="E358" s="52">
         <f>SUM(C358,E357)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>135.14399999999998</v>
+        <v>134.14399999999998</v>
       </c>
       <c r="F358" s="19"/>
       <c r="G358" s="12">
@@ -11799,11 +11807,13 @@
         <v>239.292</v>
       </c>
       <c r="J358" s="10"/>
-      <c r="K358" s="19"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K358" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B359" s="19"/>
       <c r="C359" s="12">
@@ -11812,7 +11822,7 @@
       <c r="D359" s="37"/>
       <c r="E359" s="52">
         <f>SUM(C359,E358)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>136.39399999999998</v>
+        <v>135.39399999999998</v>
       </c>
       <c r="F359" s="19"/>
       <c r="G359" s="12">
@@ -11827,9 +11837,9 @@
       <c r="J359" s="10"/>
       <c r="K359" s="19"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B360" s="19"/>
       <c r="C360" s="12">
@@ -11838,7 +11848,7 @@
       <c r="D360" s="37"/>
       <c r="E360" s="52">
         <f>SUM(C360,E359)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>137.64399999999998</v>
+        <v>136.64399999999998</v>
       </c>
       <c r="F360" s="19"/>
       <c r="G360" s="12">
@@ -11853,73 +11863,81 @@
       <c r="J360" s="10"/>
       <c r="K360" s="19"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="39">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="38">
+        <v>45047</v>
+      </c>
+      <c r="B361" s="19"/>
+      <c r="C361" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D361" s="37"/>
+      <c r="E361" s="52">
+        <f>SUM(C361,E360)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
+        <v>137.89399999999998</v>
+      </c>
+      <c r="F361" s="19"/>
+      <c r="G361" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H361" s="37"/>
+      <c r="I361" s="52">
+        <f t="shared" si="20"/>
+        <v>243.042</v>
+      </c>
+      <c r="J361" s="10"/>
+      <c r="K361" s="19"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="39">
         <v>45078</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B362" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C361" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D361" s="41">
+      <c r="C362" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D362" s="41">
         <v>3</v>
       </c>
-      <c r="E361" s="50"/>
-      <c r="F361" s="14"/>
-      <c r="G361" s="40">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H361" s="41"/>
-      <c r="I361" s="50"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="14" t="s">
+      <c r="E362" s="50"/>
+      <c r="F362" s="14"/>
+      <c r="G362" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H362" s="41"/>
+      <c r="I362" s="50"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="39">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="39">
         <v>45108</v>
       </c>
-      <c r="B362" s="19"/>
-      <c r="C362" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D362" s="37"/>
-      <c r="E362" s="51"/>
-      <c r="F362" s="19"/>
-      <c r="G362" s="12">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H362" s="37"/>
-      <c r="I362" s="51"/>
-      <c r="J362" s="10"/>
-      <c r="K362" s="19"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="39">
-        <v>45139</v>
-      </c>
       <c r="B363" s="19"/>
-      <c r="C363" s="12"/>
+      <c r="C363" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="37"/>
       <c r="E363" s="51"/>
       <c r="F363" s="19"/>
-      <c r="G363" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="37"/>
       <c r="I363" s="51"/>
       <c r="J363" s="10"/>
       <c r="K363" s="19"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B364" s="19"/>
       <c r="C364" s="12"/>
@@ -11935,9 +11953,9 @@
       <c r="J364" s="10"/>
       <c r="K364" s="19"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B365" s="19"/>
       <c r="C365" s="12"/>
@@ -11953,9 +11971,9 @@
       <c r="J365" s="10"/>
       <c r="K365" s="19"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B366" s="19"/>
       <c r="C366" s="12"/>
@@ -11971,9 +11989,9 @@
       <c r="J366" s="10"/>
       <c r="K366" s="19"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B367" s="19"/>
       <c r="C367" s="12"/>
@@ -11989,9 +12007,9 @@
       <c r="J367" s="10"/>
       <c r="K367" s="19"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B368" s="19"/>
       <c r="C368" s="12"/>
@@ -12007,9 +12025,9 @@
       <c r="J368" s="10"/>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B369" s="19"/>
       <c r="C369" s="12"/>
@@ -12025,9 +12043,9 @@
       <c r="J369" s="10"/>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B370" s="19"/>
       <c r="C370" s="12"/>
@@ -12043,9 +12061,9 @@
       <c r="J370" s="10"/>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B371" s="19"/>
       <c r="C371" s="12"/>
@@ -12061,9 +12079,9 @@
       <c r="J371" s="10"/>
       <c r="K371" s="19"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B372" s="19"/>
       <c r="C372" s="12"/>
@@ -12079,9 +12097,9 @@
       <c r="J372" s="10"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B373" s="19"/>
       <c r="C373" s="12"/>
@@ -12097,9 +12115,9 @@
       <c r="J373" s="10"/>
       <c r="K373" s="19"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B374" s="19"/>
       <c r="C374" s="12"/>
@@ -12115,8 +12133,10 @@
       <c r="J374" s="10"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="38"/>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="39">
+        <v>45474</v>
+      </c>
       <c r="B375" s="19"/>
       <c r="C375" s="12"/>
       <c r="D375" s="37"/>
@@ -12131,7 +12151,7 @@
       <c r="J375" s="10"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="19"/>
       <c r="C376" s="12"/>
@@ -12147,7 +12167,7 @@
       <c r="J376" s="10"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
       <c r="B377" s="19"/>
       <c r="C377" s="12"/>
@@ -12163,7 +12183,7 @@
       <c r="J377" s="10"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
       <c r="B378" s="19"/>
       <c r="C378" s="12"/>
@@ -12179,7 +12199,7 @@
       <c r="J378" s="10"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="19"/>
       <c r="C379" s="12"/>
@@ -12195,7 +12215,7 @@
       <c r="J379" s="10"/>
       <c r="K379" s="19"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38"/>
       <c r="B380" s="19"/>
       <c r="C380" s="12"/>
@@ -12211,7 +12231,7 @@
       <c r="J380" s="10"/>
       <c r="K380" s="19"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="B381" s="19"/>
       <c r="C381" s="12"/>
@@ -12227,7 +12247,7 @@
       <c r="J381" s="10"/>
       <c r="K381" s="19"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38"/>
       <c r="B382" s="19"/>
       <c r="C382" s="12"/>
@@ -12243,7 +12263,7 @@
       <c r="J382" s="10"/>
       <c r="K382" s="19"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38"/>
       <c r="B383" s="19"/>
       <c r="C383" s="12"/>
@@ -12259,7 +12279,7 @@
       <c r="J383" s="10"/>
       <c r="K383" s="19"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38"/>
       <c r="B384" s="19"/>
       <c r="C384" s="12"/>
@@ -12275,7 +12295,7 @@
       <c r="J384" s="10"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="19"/>
       <c r="C385" s="12"/>
@@ -12291,7 +12311,7 @@
       <c r="J385" s="10"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38"/>
       <c r="B386" s="19"/>
       <c r="C386" s="12"/>
@@ -12307,7 +12327,7 @@
       <c r="J386" s="10"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="38"/>
       <c r="B387" s="19"/>
       <c r="C387" s="12"/>
@@ -12323,7 +12343,7 @@
       <c r="J387" s="10"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38"/>
       <c r="B388" s="19"/>
       <c r="C388" s="12"/>
@@ -12339,7 +12359,7 @@
       <c r="J388" s="10"/>
       <c r="K388" s="19"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
       <c r="B389" s="19"/>
       <c r="C389" s="12"/>
@@ -12355,7 +12375,7 @@
       <c r="J389" s="10"/>
       <c r="K389" s="19"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38"/>
       <c r="B390" s="19"/>
       <c r="C390" s="12"/>
@@ -12371,7 +12391,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38"/>
       <c r="B391" s="19"/>
       <c r="C391" s="12"/>
@@ -12387,7 +12407,7 @@
       <c r="J391" s="10"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38"/>
       <c r="B392" s="19"/>
       <c r="C392" s="12"/>
@@ -12403,7 +12423,7 @@
       <c r="J392" s="10"/>
       <c r="K392" s="19"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38"/>
       <c r="B393" s="19"/>
       <c r="C393" s="12"/>
@@ -12419,7 +12439,7 @@
       <c r="J393" s="10"/>
       <c r="K393" s="19"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="38"/>
       <c r="B394" s="19"/>
       <c r="C394" s="12"/>
@@ -12435,7 +12455,7 @@
       <c r="J394" s="10"/>
       <c r="K394" s="19"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38"/>
       <c r="B395" s="19"/>
       <c r="C395" s="12"/>
@@ -12451,7 +12471,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="19"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38"/>
       <c r="B396" s="19"/>
       <c r="C396" s="12"/>
@@ -12467,7 +12487,7 @@
       <c r="J396" s="10"/>
       <c r="K396" s="19"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38"/>
       <c r="B397" s="19"/>
       <c r="C397" s="12"/>
@@ -12483,7 +12503,7 @@
       <c r="J397" s="10"/>
       <c r="K397" s="19"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38"/>
       <c r="B398" s="19"/>
       <c r="C398" s="12"/>
@@ -12499,7 +12519,7 @@
       <c r="J398" s="10"/>
       <c r="K398" s="19"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38"/>
       <c r="B399" s="19"/>
       <c r="C399" s="12"/>
@@ -12515,7 +12535,7 @@
       <c r="J399" s="10"/>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38"/>
       <c r="B400" s="19"/>
       <c r="C400" s="12"/>
@@ -12531,7 +12551,7 @@
       <c r="J400" s="10"/>
       <c r="K400" s="19"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38"/>
       <c r="B401" s="19"/>
       <c r="C401" s="12"/>
@@ -12547,7 +12567,7 @@
       <c r="J401" s="10"/>
       <c r="K401" s="19"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="38"/>
       <c r="B402" s="19"/>
       <c r="C402" s="12"/>
@@ -12563,7 +12583,7 @@
       <c r="J402" s="10"/>
       <c r="K402" s="19"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38"/>
       <c r="B403" s="19"/>
       <c r="C403" s="12"/>
@@ -12579,7 +12599,7 @@
       <c r="J403" s="10"/>
       <c r="K403" s="19"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38"/>
       <c r="B404" s="19"/>
       <c r="C404" s="12"/>
@@ -12595,7 +12615,7 @@
       <c r="J404" s="10"/>
       <c r="K404" s="19"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38"/>
       <c r="B405" s="19"/>
       <c r="C405" s="12"/>
@@ -12611,7 +12631,7 @@
       <c r="J405" s="10"/>
       <c r="K405" s="19"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38"/>
       <c r="B406" s="19"/>
       <c r="C406" s="12"/>
@@ -12627,7 +12647,7 @@
       <c r="J406" s="10"/>
       <c r="K406" s="19"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
       <c r="B407" s="19"/>
       <c r="C407" s="12"/>
@@ -12643,7 +12663,7 @@
       <c r="J407" s="10"/>
       <c r="K407" s="19"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38"/>
       <c r="B408" s="19"/>
       <c r="C408" s="12"/>
@@ -12659,7 +12679,7 @@
       <c r="J408" s="10"/>
       <c r="K408" s="19"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38"/>
       <c r="B409" s="19"/>
       <c r="C409" s="12"/>
@@ -12675,7 +12695,7 @@
       <c r="J409" s="10"/>
       <c r="K409" s="19"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="B410" s="19"/>
       <c r="C410" s="12"/>
@@ -12691,7 +12711,7 @@
       <c r="J410" s="10"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38"/>
       <c r="B411" s="19"/>
       <c r="C411" s="12"/>
@@ -12707,7 +12727,7 @@
       <c r="J411" s="10"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="38"/>
       <c r="B412" s="19"/>
       <c r="C412" s="12"/>
@@ -12723,7 +12743,7 @@
       <c r="J412" s="10"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="38"/>
       <c r="B413" s="19"/>
       <c r="C413" s="12"/>
@@ -12739,7 +12759,7 @@
       <c r="J413" s="10"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38"/>
       <c r="B414" s="19"/>
       <c r="C414" s="12"/>
@@ -12755,7 +12775,7 @@
       <c r="J414" s="10"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
       <c r="B415" s="19"/>
       <c r="C415" s="12"/>
@@ -12771,7 +12791,7 @@
       <c r="J415" s="10"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="38"/>
       <c r="B416" s="19"/>
       <c r="C416" s="12"/>
@@ -12787,7 +12807,7 @@
       <c r="J416" s="10"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="38"/>
       <c r="B417" s="19"/>
       <c r="C417" s="12"/>
@@ -12803,7 +12823,7 @@
       <c r="J417" s="10"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
       <c r="B418" s="19"/>
       <c r="C418" s="12"/>
@@ -12819,7 +12839,7 @@
       <c r="J418" s="10"/>
       <c r="K418" s="19"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="19"/>
       <c r="C419" s="12"/>
@@ -12835,7 +12855,7 @@
       <c r="J419" s="10"/>
       <c r="K419" s="19"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="38"/>
       <c r="B420" s="19"/>
       <c r="C420" s="12"/>
@@ -12851,7 +12871,7 @@
       <c r="J420" s="10"/>
       <c r="K420" s="19"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="38"/>
       <c r="B421" s="19"/>
       <c r="C421" s="12"/>
@@ -12867,7 +12887,7 @@
       <c r="J421" s="10"/>
       <c r="K421" s="19"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
       <c r="B422" s="19"/>
       <c r="C422" s="12"/>
@@ -12883,7 +12903,7 @@
       <c r="J422" s="10"/>
       <c r="K422" s="19"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="38"/>
       <c r="B423" s="19"/>
       <c r="C423" s="12"/>
@@ -12899,7 +12919,7 @@
       <c r="J423" s="10"/>
       <c r="K423" s="19"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
       <c r="B424" s="19"/>
       <c r="C424" s="12"/>
@@ -12915,7 +12935,7 @@
       <c r="J424" s="10"/>
       <c r="K424" s="19"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="38"/>
       <c r="B425" s="19"/>
       <c r="C425" s="12"/>
@@ -12931,7 +12951,7 @@
       <c r="J425" s="10"/>
       <c r="K425" s="19"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="38"/>
       <c r="B426" s="19"/>
       <c r="C426" s="12"/>
@@ -12947,7 +12967,7 @@
       <c r="J426" s="10"/>
       <c r="K426" s="19"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="38"/>
       <c r="B427" s="19"/>
       <c r="C427" s="12"/>
@@ -12963,7 +12983,7 @@
       <c r="J427" s="10"/>
       <c r="K427" s="19"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="38"/>
       <c r="B428" s="19"/>
       <c r="C428" s="12"/>
@@ -12979,7 +12999,7 @@
       <c r="J428" s="10"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="38"/>
       <c r="B429" s="19"/>
       <c r="C429" s="12"/>
@@ -12995,7 +13015,7 @@
       <c r="J429" s="10"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="38"/>
       <c r="B430" s="19"/>
       <c r="C430" s="12"/>
@@ -13011,7 +13031,7 @@
       <c r="J430" s="10"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="38"/>
       <c r="B431" s="19"/>
       <c r="C431" s="12"/>
@@ -13027,7 +13047,7 @@
       <c r="J431" s="10"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
       <c r="B432" s="19"/>
       <c r="C432" s="12"/>
@@ -13043,7 +13063,7 @@
       <c r="J432" s="10"/>
       <c r="K432" s="19"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="38"/>
       <c r="B433" s="19"/>
       <c r="C433" s="12"/>
@@ -13059,7 +13079,7 @@
       <c r="J433" s="10"/>
       <c r="K433" s="19"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="38"/>
       <c r="B434" s="19"/>
       <c r="C434" s="12"/>
@@ -13075,7 +13095,7 @@
       <c r="J434" s="10"/>
       <c r="K434" s="19"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="38"/>
       <c r="B435" s="19"/>
       <c r="C435" s="12"/>
@@ -13091,7 +13111,7 @@
       <c r="J435" s="10"/>
       <c r="K435" s="19"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="38"/>
       <c r="B436" s="19"/>
       <c r="C436" s="12"/>
@@ -13107,7 +13127,7 @@
       <c r="J436" s="10"/>
       <c r="K436" s="19"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="38"/>
       <c r="B437" s="19"/>
       <c r="C437" s="12"/>
@@ -13123,7 +13143,7 @@
       <c r="J437" s="10"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="38"/>
       <c r="B438" s="19"/>
       <c r="C438" s="12"/>
@@ -13139,7 +13159,7 @@
       <c r="J438" s="10"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="38"/>
       <c r="B439" s="19"/>
       <c r="C439" s="12"/>
@@ -13155,7 +13175,7 @@
       <c r="J439" s="10"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="38"/>
       <c r="B440" s="19"/>
       <c r="C440" s="12"/>
@@ -13171,7 +13191,7 @@
       <c r="J440" s="10"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="38"/>
       <c r="B441" s="19"/>
       <c r="C441" s="12"/>
@@ -13187,7 +13207,7 @@
       <c r="J441" s="10"/>
       <c r="K441" s="19"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="38"/>
       <c r="B442" s="19"/>
       <c r="C442" s="12"/>
@@ -13203,7 +13223,7 @@
       <c r="J442" s="10"/>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="38"/>
       <c r="B443" s="19"/>
       <c r="C443" s="12"/>
@@ -13219,7 +13239,7 @@
       <c r="J443" s="10"/>
       <c r="K443" s="19"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="38"/>
       <c r="B444" s="19"/>
       <c r="C444" s="12"/>
@@ -13235,7 +13255,7 @@
       <c r="J444" s="10"/>
       <c r="K444" s="19"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="38"/>
       <c r="B445" s="19"/>
       <c r="C445" s="12"/>
@@ -13251,7 +13271,7 @@
       <c r="J445" s="10"/>
       <c r="K445" s="19"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="38"/>
       <c r="B446" s="19"/>
       <c r="C446" s="12"/>
@@ -13267,7 +13287,7 @@
       <c r="J446" s="10"/>
       <c r="K446" s="19"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="38"/>
       <c r="B447" s="19"/>
       <c r="C447" s="12"/>
@@ -13283,7 +13303,7 @@
       <c r="J447" s="10"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="38"/>
       <c r="B448" s="19"/>
       <c r="C448" s="12"/>
@@ -13299,7 +13319,7 @@
       <c r="J448" s="10"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="38"/>
       <c r="B449" s="19"/>
       <c r="C449" s="12"/>
@@ -13315,7 +13335,7 @@
       <c r="J449" s="10"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="38"/>
       <c r="B450" s="19"/>
       <c r="C450" s="12"/>
@@ -13331,7 +13351,7 @@
       <c r="J450" s="10"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="38"/>
       <c r="B451" s="19"/>
       <c r="C451" s="12"/>
@@ -13347,7 +13367,7 @@
       <c r="J451" s="10"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="38"/>
       <c r="B452" s="19"/>
       <c r="C452" s="12"/>
@@ -13363,7 +13383,7 @@
       <c r="J452" s="10"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
       <c r="B453" s="19"/>
       <c r="C453" s="12"/>
@@ -13379,7 +13399,7 @@
       <c r="J453" s="10"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="38"/>
       <c r="B454" s="19"/>
       <c r="C454" s="12"/>
@@ -13395,7 +13415,7 @@
       <c r="J454" s="10"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="38"/>
       <c r="B455" s="19"/>
       <c r="C455" s="12"/>
@@ -13411,7 +13431,7 @@
       <c r="J455" s="10"/>
       <c r="K455" s="19"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="38"/>
       <c r="B456" s="19"/>
       <c r="C456" s="12"/>
@@ -13427,7 +13447,7 @@
       <c r="J456" s="10"/>
       <c r="K456" s="19"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="38"/>
       <c r="B457" s="19"/>
       <c r="C457" s="12"/>
@@ -13443,7 +13463,7 @@
       <c r="J457" s="10"/>
       <c r="K457" s="19"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="38"/>
       <c r="B458" s="19"/>
       <c r="C458" s="12"/>
@@ -13459,7 +13479,7 @@
       <c r="J458" s="10"/>
       <c r="K458" s="19"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="38"/>
       <c r="B459" s="19"/>
       <c r="C459" s="12"/>
@@ -13475,7 +13495,7 @@
       <c r="J459" s="10"/>
       <c r="K459" s="19"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="38"/>
       <c r="B460" s="19"/>
       <c r="C460" s="12"/>
@@ -13491,7 +13511,7 @@
       <c r="J460" s="10"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="38"/>
       <c r="B461" s="19"/>
       <c r="C461" s="12"/>
@@ -13507,7 +13527,7 @@
       <c r="J461" s="10"/>
       <c r="K461" s="19"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
       <c r="B462" s="19"/>
       <c r="C462" s="12"/>
@@ -13523,7 +13543,7 @@
       <c r="J462" s="10"/>
       <c r="K462" s="19"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="38"/>
       <c r="B463" s="19"/>
       <c r="C463" s="12"/>
@@ -13539,7 +13559,7 @@
       <c r="J463" s="10"/>
       <c r="K463" s="19"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="38"/>
       <c r="B464" s="19"/>
       <c r="C464" s="12"/>
@@ -13555,7 +13575,7 @@
       <c r="J464" s="10"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="38"/>
       <c r="B465" s="19"/>
       <c r="C465" s="12"/>
@@ -13571,7 +13591,7 @@
       <c r="J465" s="10"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="38"/>
       <c r="B466" s="19"/>
       <c r="C466" s="12"/>
@@ -13587,7 +13607,7 @@
       <c r="J466" s="10"/>
       <c r="K466" s="19"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="38"/>
       <c r="B467" s="19"/>
       <c r="C467" s="12"/>
@@ -13603,7 +13623,7 @@
       <c r="J467" s="10"/>
       <c r="K467" s="19"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="38"/>
       <c r="B468" s="19"/>
       <c r="C468" s="12"/>
@@ -13619,7 +13639,7 @@
       <c r="J468" s="10"/>
       <c r="K468" s="19"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
       <c r="B469" s="19"/>
       <c r="C469" s="12"/>
@@ -13635,7 +13655,7 @@
       <c r="J469" s="10"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="38"/>
       <c r="B470" s="19"/>
       <c r="C470" s="12"/>
@@ -13651,7 +13671,7 @@
       <c r="J470" s="10"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="38"/>
       <c r="B471" s="19"/>
       <c r="C471" s="12"/>
@@ -13667,7 +13687,7 @@
       <c r="J471" s="10"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="38"/>
       <c r="B472" s="19"/>
       <c r="C472" s="12"/>
@@ -13683,7 +13703,7 @@
       <c r="J472" s="10"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="38"/>
       <c r="B473" s="19"/>
       <c r="C473" s="12"/>
@@ -13699,7 +13719,7 @@
       <c r="J473" s="10"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="38"/>
       <c r="B474" s="19"/>
       <c r="C474" s="12"/>
@@ -13715,21 +13735,37 @@
       <c r="J474" s="10"/>
       <c r="K474" s="19"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="39"/>
-      <c r="B475" s="14"/>
-      <c r="C475" s="40"/>
-      <c r="D475" s="41"/>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="38"/>
+      <c r="B475" s="19"/>
+      <c r="C475" s="12"/>
+      <c r="D475" s="37"/>
       <c r="E475" s="51"/>
-      <c r="F475" s="14"/>
-      <c r="G475" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H475" s="41"/>
+      <c r="F475" s="19"/>
+      <c r="G475" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="37"/>
       <c r="I475" s="51"/>
-      <c r="J475" s="11"/>
-      <c r="K475" s="14"/>
+      <c r="J475" s="10"/>
+      <c r="K475" s="19"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="39"/>
+      <c r="B476" s="14"/>
+      <c r="C476" s="40"/>
+      <c r="D476" s="41"/>
+      <c r="E476" s="51"/>
+      <c r="F476" s="14"/>
+      <c r="G476" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="41"/>
+      <c r="I476" s="51"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13746,10 +13782,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13775,28 +13811,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>31</v>
       </c>
@@ -13809,7 +13845,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -13838,7 +13874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="D3" s="10">
@@ -13864,17 +13900,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
@@ -13895,7 +13931,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -13922,7 +13958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -13948,7 +13984,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -13974,7 +14010,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -14000,7 +14036,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -14026,7 +14062,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -14052,7 +14088,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -14078,7 +14114,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -14104,7 +14140,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -14124,7 +14160,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -14144,7 +14180,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -14164,7 +14200,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -14185,7 +14221,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -14206,7 +14242,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -14227,7 +14263,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -14248,7 +14284,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -14269,7 +14305,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -14290,7 +14326,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -14311,7 +14347,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -14332,7 +14368,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -14353,7 +14389,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -14374,7 +14410,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -14395,7 +14431,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -14416,7 +14452,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -14437,7 +14473,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -14458,7 +14494,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -14479,7 +14515,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -14500,7 +14536,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -14521,7 +14557,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -14542,7 +14578,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -14563,7 +14599,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -14584,7 +14620,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -14593,7 +14629,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -14602,7 +14638,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -14611,7 +14647,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -14620,7 +14656,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -14629,7 +14665,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -14638,7 +14674,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -14647,7 +14683,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -14656,7 +14692,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -14665,7 +14701,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -14674,7 +14710,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -14683,7 +14719,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -14692,7 +14728,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -14701,7 +14737,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -14710,7 +14746,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -14719,7 +14755,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -14728,7 +14764,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -14737,7 +14773,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -14746,7 +14782,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -14755,7 +14791,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -14764,7 +14800,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -14773,7 +14809,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -14782,7 +14818,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -14791,7 +14827,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -14800,7 +14836,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -14809,7 +14845,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -14818,7 +14854,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -14827,7 +14863,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -14836,7 +14872,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -14845,7 +14881,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC73166-04CD-4AD9-BD37-8E66207B1194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="260">
   <si>
     <t>PERIOD</t>
   </si>
@@ -822,11 +821,14 @@
   <si>
     <t>FL(2-0-0)</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1512,7 +1514,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1529,25 +1531,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K476" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1854,34 +1856,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K476"/>
+  <dimension ref="A2:K477"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A328" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
+      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1904,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1924,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +1944,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="H5" s="26" t="s">
         <v>17</v>
@@ -1950,7 +1952,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -1963,7 +1965,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
@@ -1980,7 +1982,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
         <v>22</v>
@@ -2024,7 +2026,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.39400000000003</v>
+        <v>140.64400000000003</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="str">
@@ -2034,12 +2036,12 @@
       <c r="H9" s="10"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.54200000000003</v>
+        <v>251.79200000000003</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2056,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>37851</v>
       </c>
@@ -2079,7 +2081,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f>EDATE(A11,1)</f>
         <v>37882</v>
@@ -2106,7 +2108,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" ref="A13:A15" si="0">EDATE(A12,1)</f>
         <v>37912</v>
@@ -2133,7 +2135,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>37943</v>
@@ -2164,7 +2166,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>37973</v>
@@ -2195,7 +2197,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>67</v>
       </c>
@@ -2219,7 +2221,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>37987</v>
       </c>
@@ -2249,7 +2251,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f>EDATE(A17,1)</f>
         <v>38018</v>
@@ -2280,7 +2282,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" ref="A19:A28" si="2">EDATE(A18,1)</f>
         <v>38047</v>
@@ -2311,7 +2313,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -2342,7 +2344,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -2373,7 +2375,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -2400,7 +2402,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -2427,7 +2429,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -2454,7 +2456,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -2481,7 +2483,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -2508,7 +2510,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <f>EDATE(A26,1)</f>
         <v>38292</v>
@@ -2535,7 +2537,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -2562,7 +2564,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>68</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>38353</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <f>EDATE(A30,1)</f>
         <v>38384</v>
@@ -2647,7 +2649,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <f t="shared" ref="A32:A40" si="3">EDATE(A31,1)</f>
         <v>38412</v>
@@ -2678,7 +2680,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -2709,7 +2711,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <f t="shared" si="3"/>
         <v>38473</v>
@@ -2736,7 +2738,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <f t="shared" si="3"/>
         <v>38504</v>
@@ -2763,7 +2765,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <f t="shared" si="3"/>
         <v>38534</v>
@@ -2790,7 +2792,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <f t="shared" si="3"/>
         <v>38565</v>
@@ -2817,7 +2819,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <f t="shared" si="3"/>
         <v>38596</v>
@@ -2844,7 +2846,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <f t="shared" si="3"/>
         <v>38626</v>
@@ -2871,7 +2873,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <f t="shared" si="3"/>
         <v>38657</v>
@@ -2898,7 +2900,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <f>EDATE(A40,1)</f>
         <v>38687</v>
@@ -2925,7 +2927,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>80</v>
       </c>
@@ -2949,7 +2951,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>38718</v>
       </c>
@@ -2979,7 +2981,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -3010,7 +3012,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <f t="shared" ref="A45:A55" si="4">EDATE(A44,1)</f>
         <v>38777</v>
@@ -3043,7 +3045,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -3070,7 +3072,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -3103,7 +3105,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -3130,7 +3132,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -3157,7 +3159,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -3188,7 +3190,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -3219,7 +3221,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -3252,7 +3254,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="19" t="s">
         <v>90</v>
@@ -3275,7 +3277,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <f>EDATE(A52,1)</f>
         <v>39022</v>
@@ -3302,7 +3304,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -3333,7 +3335,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
         <v>81</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>39083</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="19" t="s">
         <v>94</v>
@@ -3415,7 +3417,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <f>EDATE(A57,1)</f>
         <v>39114</v>
@@ -3448,7 +3450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="19" t="s">
         <v>96</v>
@@ -3474,7 +3476,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <f>EDATE(A59,1)</f>
         <v>39142</v>
@@ -3507,7 +3509,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="19" t="s">
         <v>99</v>
@@ -3533,7 +3535,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <f>EDATE(A61,1)</f>
         <v>39173</v>
@@ -3564,7 +3566,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <f t="shared" ref="A64:A73" si="5">EDATE(A63,1)</f>
         <v>39203</v>
@@ -3595,7 +3597,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <f t="shared" si="5"/>
         <v>39234</v>
@@ -3626,7 +3628,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <f t="shared" si="5"/>
         <v>39264</v>
@@ -3659,7 +3661,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <f t="shared" si="5"/>
         <v>39295</v>
@@ -3690,7 +3692,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <f t="shared" si="5"/>
         <v>39326</v>
@@ -3721,7 +3723,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <f t="shared" si="5"/>
         <v>39356</v>
@@ -3752,7 +3754,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="19" t="s">
         <v>88</v>
@@ -3777,7 +3779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="19" t="s">
         <v>108</v>
@@ -3800,7 +3802,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <f>EDATE(A69,1)</f>
         <v>39387</v>
@@ -3831,7 +3833,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <f t="shared" si="5"/>
         <v>39417</v>
@@ -3862,7 +3864,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
         <v>82</v>
       </c>
@@ -3886,7 +3888,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>39448</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="J75" s="10"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <f>EDATE(A75,1)</f>
         <v>39479</v>
@@ -3949,7 +3951,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="19" t="s">
         <v>115</v>
@@ -3972,7 +3974,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <f>EDATE(A76,1)</f>
         <v>39508</v>
@@ -4003,7 +4005,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <f t="shared" ref="A79:A86" si="7">EDATE(A78,1)</f>
         <v>39539</v>
@@ -4036,7 +4038,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="19" t="s">
         <v>117</v>
@@ -4059,7 +4061,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <f>EDATE(A79,1)</f>
         <v>39569</v>
@@ -4092,7 +4094,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="19" t="s">
         <v>119</v>
@@ -4115,7 +4117,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <f>EDATE(A81,1)</f>
         <v>39600</v>
@@ -4146,7 +4148,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <f t="shared" si="7"/>
         <v>39630</v>
@@ -4177,7 +4179,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <f t="shared" si="7"/>
         <v>39661</v>
@@ -4208,7 +4210,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <f t="shared" si="7"/>
         <v>39692</v>
@@ -4241,7 +4243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="19" t="s">
         <v>125</v>
@@ -4264,7 +4266,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <f>EDATE(A86,1)</f>
         <v>39722</v>
@@ -4297,7 +4299,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="19" t="s">
         <v>98</v>
@@ -4322,7 +4324,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="19" t="s">
         <v>126</v>
@@ -4345,7 +4347,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <f>EDATE(A88,1)</f>
         <v>39753</v>
@@ -4378,7 +4380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="19" t="s">
         <v>129</v>
@@ -4401,7 +4403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="19" t="s">
         <v>130</v>
@@ -4424,7 +4426,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <f>EDATE(A91,1)</f>
         <v>39783</v>
@@ -4455,7 +4457,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>111</v>
       </c>
@@ -4479,7 +4481,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>39814</v>
       </c>
@@ -4505,7 +4507,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <f>EDATE(A96,1)</f>
         <v>39845</v>
@@ -4538,7 +4540,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="19" t="s">
         <v>133</v>
@@ -4563,7 +4565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="19" t="s">
         <v>83</v>
@@ -4586,7 +4588,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <f>EDATE(A97,1)</f>
         <v>39873</v>
@@ -4619,7 +4621,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="19" t="s">
         <v>135</v>
@@ -4642,7 +4644,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="19"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <f>EDATE(A100,1)</f>
         <v>39904</v>
@@ -4675,7 +4677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="19" t="s">
         <v>98</v>
@@ -4700,7 +4702,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="19" t="s">
         <v>136</v>
@@ -4723,7 +4725,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <f>EDATE(A102,1)</f>
         <v>39934</v>
@@ -4754,7 +4756,7 @@
       <c r="J105" s="10"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <f>EDATE(A105,1)</f>
         <v>39965</v>
@@ -4785,7 +4787,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="19"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <f t="shared" ref="A107:A111" si="8">EDATE(A106,1)</f>
         <v>39995</v>
@@ -4816,7 +4818,7 @@
       <c r="J107" s="10"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -4849,7 +4851,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="19" t="s">
         <v>141</v>
@@ -4872,7 +4874,7 @@
       <c r="J109" s="10"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <f>EDATE(A108,1)</f>
         <v>40057</v>
@@ -4903,7 +4905,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="19"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <f t="shared" si="8"/>
         <v>40087</v>
@@ -4936,7 +4938,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="19" t="s">
         <v>98</v>
@@ -4961,7 +4963,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="19" t="s">
         <v>105</v>
@@ -4984,7 +4986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="19" t="s">
         <v>144</v>
@@ -5007,7 +5009,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <f>EDATE(A111,1)</f>
         <v>40118</v>
@@ -5040,7 +5042,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="19" t="s">
         <v>145</v>
@@ -5063,7 +5065,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="19"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <f>EDATE(A115,1)</f>
         <v>40148</v>
@@ -5096,7 +5098,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="19" t="s">
         <v>148</v>
@@ -5119,7 +5121,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="46" t="s">
         <v>112</v>
       </c>
@@ -5143,7 +5145,7 @@
       <c r="J119" s="10"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>40179</v>
       </c>
@@ -5173,7 +5175,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="19"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <f>EDATE(A120,1)</f>
         <v>40210</v>
@@ -5206,7 +5208,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="22"/>
       <c r="B122" s="19" t="s">
         <v>114</v>
@@ -5231,7 +5233,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="22"/>
       <c r="B123" s="19" t="s">
         <v>123</v>
@@ -5256,7 +5258,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="22"/>
       <c r="B124" s="19" t="s">
         <v>150</v>
@@ -5279,7 +5281,7 @@
       <c r="J124" s="10"/>
       <c r="K124" s="19"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <f>EDATE(A121,1)</f>
         <v>40238</v>
@@ -5310,7 +5312,7 @@
       <c r="J125" s="10"/>
       <c r="K125" s="19"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <f t="shared" ref="A126:A142" si="9">EDATE(A125,1)</f>
         <v>40269</v>
@@ -5341,7 +5343,7 @@
       <c r="J126" s="10"/>
       <c r="K126" s="19"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <f t="shared" si="9"/>
         <v>40299</v>
@@ -5374,7 +5376,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="22"/>
       <c r="B128" s="19" t="s">
         <v>98</v>
@@ -5399,7 +5401,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="22"/>
       <c r="B129" s="19" t="s">
         <v>156</v>
@@ -5422,7 +5424,7 @@
       <c r="J129" s="10"/>
       <c r="K129" s="19"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <f>EDATE(A127,1)</f>
         <v>40330</v>
@@ -5455,7 +5457,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="22"/>
       <c r="B131" s="19" t="s">
         <v>158</v>
@@ -5478,7 +5480,7 @@
       <c r="J131" s="10"/>
       <c r="K131" s="19"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <f>EDATE(A130,1)</f>
         <v>40360</v>
@@ -5511,7 +5513,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="22"/>
       <c r="B133" s="19" t="s">
         <v>98</v>
@@ -5536,7 +5538,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="22"/>
       <c r="B134" s="19" t="s">
         <v>159</v>
@@ -5559,7 +5561,7 @@
       <c r="J134" s="10"/>
       <c r="K134" s="19"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <f>EDATE(A132,1)</f>
         <v>40391</v>
@@ -5590,7 +5592,7 @@
       <c r="J135" s="10"/>
       <c r="K135" s="19"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -5623,7 +5625,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
       <c r="B137" s="19" t="s">
         <v>114</v>
@@ -5648,7 +5650,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="22"/>
       <c r="B138" s="19" t="s">
         <v>98</v>
@@ -5673,7 +5675,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
       <c r="B139" s="19" t="s">
         <v>98</v>
@@ -5698,7 +5700,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="22"/>
       <c r="B140" s="19" t="s">
         <v>129</v>
@@ -5721,7 +5723,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
         <f>EDATE(A136,1)</f>
         <v>40452</v>
@@ -5754,7 +5756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <f t="shared" si="9"/>
         <v>40483</v>
@@ -5785,7 +5787,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <f>EDATE(A142,1)</f>
         <v>40513</v>
@@ -5818,7 +5820,7 @@
         <v>47453</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="22"/>
       <c r="B144" s="19" t="s">
         <v>146</v>
@@ -5844,7 +5846,7 @@
       <c r="J144" s="10"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="22"/>
       <c r="B145" s="19" t="s">
         <v>165</v>
@@ -5870,7 +5872,7 @@
       <c r="J145" s="10"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
         <v>166</v>
       </c>
@@ -5894,7 +5896,7 @@
       <c r="J146" s="10"/>
       <c r="K146" s="19"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="22">
         <v>40544</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
       <c r="B148" s="19" t="s">
         <v>167</v>
@@ -5949,7 +5951,7 @@
       <c r="J148" s="10"/>
       <c r="K148" s="19"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="22">
         <f>EDATE(A147,1)</f>
         <v>40575</v>
@@ -5980,7 +5982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="22"/>
       <c r="B150" s="19" t="s">
         <v>146</v>
@@ -6005,7 +6007,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="22"/>
       <c r="B151" s="19" t="s">
         <v>170</v>
@@ -6028,7 +6030,7 @@
       <c r="J151" s="10"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <f>EDATE(A149,1)</f>
         <v>40603</v>
@@ -6059,7 +6061,7 @@
       <c r="J152" s="10"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="22">
         <f t="shared" ref="A153:A168" si="11">EDATE(A152,1)</f>
         <v>40634</v>
@@ -6090,7 +6092,7 @@
       <c r="J153" s="10"/>
       <c r="K153" s="19"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <f t="shared" si="11"/>
         <v>40664</v>
@@ -6121,7 +6123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="22"/>
       <c r="B155" s="19" t="s">
         <v>91</v>
@@ -6146,7 +6148,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="22"/>
       <c r="B156" s="19" t="s">
         <v>173</v>
@@ -6169,7 +6171,7 @@
       <c r="J156" s="10"/>
       <c r="K156" s="19"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="22">
         <f>EDATE(A154,1)</f>
         <v>40695</v>
@@ -6200,7 +6202,7 @@
       <c r="J157" s="10"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="22">
         <f t="shared" si="11"/>
         <v>40725</v>
@@ -6231,7 +6233,7 @@
       <c r="J158" s="10"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="22">
         <f t="shared" si="11"/>
         <v>40756</v>
@@ -6264,7 +6266,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="22"/>
       <c r="B160" s="19" t="s">
         <v>177</v>
@@ -6287,7 +6289,7 @@
       <c r="J160" s="10"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="22">
         <f>EDATE(A159,1)</f>
         <v>40787</v>
@@ -6320,7 +6322,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="22"/>
       <c r="B162" s="19" t="s">
         <v>105</v>
@@ -6343,7 +6345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="22"/>
       <c r="B163" s="19" t="s">
         <v>178</v>
@@ -6366,7 +6368,7 @@
       <c r="J163" s="10"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <f>EDATE(A161,1)</f>
         <v>40817</v>
@@ -6399,7 +6401,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
       <c r="B165" s="19" t="s">
         <v>91</v>
@@ -6424,7 +6426,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="22"/>
       <c r="B166" s="19" t="s">
         <v>180</v>
@@ -6447,7 +6449,7 @@
       <c r="J166" s="10"/>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <f>EDATE(A164,1)</f>
         <v>40848</v>
@@ -6478,7 +6480,7 @@
       <c r="J167" s="10"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <f t="shared" si="11"/>
         <v>40878</v>
@@ -6511,7 +6513,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="22"/>
       <c r="B169" s="19" t="s">
         <v>182</v>
@@ -6537,7 +6539,7 @@
       <c r="J169" s="10"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="46" t="s">
         <v>183</v>
       </c>
@@ -6561,7 +6563,7 @@
       <c r="J170" s="10"/>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <v>40909</v>
       </c>
@@ -6591,7 +6593,7 @@
       <c r="J171" s="10"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <f>EDATE(A171,1)</f>
         <v>40940</v>
@@ -6624,7 +6626,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="22"/>
       <c r="B173" s="19" t="s">
         <v>185</v>
@@ -6647,7 +6649,7 @@
       <c r="J173" s="10"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <f>EDATE(A172,1)</f>
         <v>40969</v>
@@ -6678,7 +6680,7 @@
       <c r="J174" s="10"/>
       <c r="K174" s="19"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <f t="shared" ref="A175:A181" si="12">EDATE(A174,1)</f>
         <v>41000</v>
@@ -6705,7 +6707,7 @@
       <c r="J175" s="10"/>
       <c r="K175" s="19"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <f t="shared" si="12"/>
         <v>41030</v>
@@ -6738,7 +6740,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <f t="shared" si="12"/>
         <v>41061</v>
@@ -6769,7 +6771,7 @@
       <c r="J177" s="10"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <f t="shared" si="12"/>
         <v>41091</v>
@@ -6800,7 +6802,7 @@
       <c r="J178" s="10"/>
       <c r="K178" s="19"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <f t="shared" si="12"/>
         <v>41122</v>
@@ -6831,7 +6833,7 @@
       <c r="J179" s="10"/>
       <c r="K179" s="19"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
         <f t="shared" si="12"/>
         <v>41153</v>
@@ -6862,7 +6864,7 @@
       <c r="J180" s="10"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="22">
         <f t="shared" si="12"/>
         <v>41183</v>
@@ -6893,7 +6895,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
       <c r="B182" s="19" t="s">
         <v>105</v>
@@ -6916,7 +6918,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="22"/>
       <c r="B183" s="19" t="s">
         <v>98</v>
@@ -6941,7 +6943,7 @@
         <v>47392</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="22"/>
       <c r="B184" s="19" t="s">
         <v>105</v>
@@ -6964,7 +6966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="22"/>
       <c r="B185" s="19" t="s">
         <v>193</v>
@@ -6987,7 +6989,7 @@
       <c r="J185" s="10"/>
       <c r="K185" s="19"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <f>EDATE(A181,1)</f>
         <v>41214</v>
@@ -7020,7 +7022,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="22"/>
       <c r="B187" s="19" t="s">
         <v>197</v>
@@ -7046,7 +7048,7 @@
       <c r="J187" s="10"/>
       <c r="K187" s="19"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="22">
         <f>EDATE(A186,1)</f>
         <v>41244</v>
@@ -7077,7 +7079,7 @@
       <c r="J188" s="10"/>
       <c r="K188" s="19"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>199</v>
       </c>
@@ -7101,7 +7103,7 @@
       <c r="J189" s="10"/>
       <c r="K189" s="19"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="22">
         <v>41275</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="22"/>
       <c r="B191" s="19" t="s">
         <v>105</v>
@@ -7156,7 +7158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="22"/>
       <c r="B192" s="19" t="s">
         <v>201</v>
@@ -7179,7 +7181,7 @@
       <c r="J192" s="10"/>
       <c r="K192" s="19"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="22">
         <f>EDATE(A190,1)</f>
         <v>41306</v>
@@ -7212,7 +7214,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="22"/>
       <c r="B194" s="19" t="s">
         <v>129</v>
@@ -7235,7 +7237,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="22"/>
       <c r="B195" s="19" t="s">
         <v>202</v>
@@ -7258,7 +7260,7 @@
       <c r="J195" s="10"/>
       <c r="K195" s="19"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
         <f>EDATE(A193,1)</f>
         <v>41334</v>
@@ -7289,7 +7291,7 @@
       <c r="J196" s="10"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="22">
         <f t="shared" ref="A197:A207" si="13">EDATE(A196,1)</f>
         <v>41365</v>
@@ -7316,7 +7318,7 @@
       <c r="J197" s="10"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="22">
         <f t="shared" si="13"/>
         <v>41395</v>
@@ -7347,7 +7349,7 @@
       <c r="J198" s="10"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <f t="shared" si="13"/>
         <v>41426</v>
@@ -7378,7 +7380,7 @@
       <c r="J199" s="10"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="22">
         <f t="shared" si="13"/>
         <v>41456</v>
@@ -7411,7 +7413,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="22"/>
       <c r="B201" s="19" t="s">
         <v>114</v>
@@ -7436,7 +7438,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="22"/>
       <c r="B202" s="19" t="s">
         <v>207</v>
@@ -7459,7 +7461,7 @@
       <c r="J202" s="10"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="22">
         <f>EDATE(A200,1)</f>
         <v>41487</v>
@@ -7490,7 +7492,7 @@
       <c r="J203" s="10"/>
       <c r="K203" s="19"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="22">
         <f t="shared" si="13"/>
         <v>41518</v>
@@ -7523,7 +7525,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="22"/>
       <c r="B205" s="19" t="s">
         <v>78</v>
@@ -7546,7 +7548,7 @@
       <c r="J205" s="10"/>
       <c r="K205" s="19"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="22">
         <f>EDATE(A204,1)</f>
         <v>41548</v>
@@ -7577,7 +7579,7 @@
       <c r="J206" s="10"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="22">
         <f t="shared" si="13"/>
         <v>41579</v>
@@ -7610,7 +7612,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="22"/>
       <c r="B208" s="19" t="s">
         <v>210</v>
@@ -7633,7 +7635,7 @@
       <c r="J208" s="10"/>
       <c r="K208" s="19"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="22">
         <f>EDATE(A207,1)</f>
         <v>41609</v>
@@ -7666,7 +7668,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="46"/>
       <c r="B210" s="19" t="s">
         <v>211</v>
@@ -7692,7 +7694,7 @@
       <c r="J210" s="10"/>
       <c r="K210" s="19"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="46" t="s">
         <v>212</v>
       </c>
@@ -7716,7 +7718,7 @@
       <c r="J211" s="10"/>
       <c r="K211" s="19"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="22">
         <v>41640</v>
       </c>
@@ -7746,7 +7748,7 @@
       <c r="J212" s="10"/>
       <c r="K212" s="19"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="22">
         <f>EDATE(A212,1)</f>
         <v>41671</v>
@@ -7777,7 +7779,7 @@
       <c r="J213" s="10"/>
       <c r="K213" s="19"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="22">
         <f t="shared" ref="A214:A225" si="15">EDATE(A213,1)</f>
         <v>41699</v>
@@ -7808,7 +7810,7 @@
       <c r="J214" s="10"/>
       <c r="K214" s="19"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="22">
         <f t="shared" si="15"/>
         <v>41730</v>
@@ -7841,7 +7843,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="22"/>
       <c r="B216" s="19" t="s">
         <v>215</v>
@@ -7867,7 +7869,7 @@
       <c r="J216" s="10"/>
       <c r="K216" s="19"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="22">
         <f>EDATE(A215,1)</f>
         <v>41760</v>
@@ -7898,7 +7900,7 @@
       <c r="J217" s="10"/>
       <c r="K217" s="19"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="22">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -7931,7 +7933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <f t="shared" si="15"/>
         <v>41821</v>
@@ -7962,7 +7964,7 @@
       <c r="J219" s="10"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="22">
         <f t="shared" si="15"/>
         <v>41852</v>
@@ -7993,7 +7995,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="22"/>
       <c r="B221" s="19" t="s">
         <v>220</v>
@@ -8016,7 +8018,7 @@
       <c r="J221" s="10"/>
       <c r="K221" s="19"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="22">
         <f>EDATE(A220,1)</f>
         <v>41883</v>
@@ -8047,7 +8049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="22"/>
       <c r="B223" s="19" t="s">
         <v>218</v>
@@ -8070,7 +8072,7 @@
       <c r="J223" s="10"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="22">
         <f>EDATE(A222,1)</f>
         <v>41913</v>
@@ -8101,7 +8103,7 @@
       <c r="J224" s="10"/>
       <c r="K224" s="19"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="22">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -8132,7 +8134,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="22"/>
       <c r="B226" s="19" t="s">
         <v>159</v>
@@ -8155,7 +8157,7 @@
       <c r="J226" s="10"/>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="22">
         <f>EDATE(A225,1)</f>
         <v>41974</v>
@@ -8186,7 +8188,7 @@
       <c r="J227" s="10"/>
       <c r="K227" s="19"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="46" t="s">
         <v>225</v>
       </c>
@@ -8210,7 +8212,7 @@
       <c r="J228" s="10"/>
       <c r="K228" s="19"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="22">
         <v>42005</v>
       </c>
@@ -8240,7 +8242,7 @@
       <c r="J229" s="10"/>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="22">
         <f>EDATE(A229,1)</f>
         <v>42036</v>
@@ -8271,7 +8273,7 @@
       <c r="J230" s="10"/>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="22">
         <f t="shared" ref="A231:A242" si="16">EDATE(A230,1)</f>
         <v>42064</v>
@@ -8302,7 +8304,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="22"/>
       <c r="B232" s="19" t="s">
         <v>227</v>
@@ -8325,7 +8327,7 @@
       <c r="J232" s="10"/>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="22">
         <f>EDATE(A231,1)</f>
         <v>42095</v>
@@ -8356,7 +8358,7 @@
       <c r="J233" s="10"/>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <f>EDATE(A233,1)</f>
         <v>42125</v>
@@ -8387,7 +8389,7 @@
       <c r="J234" s="10"/>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="22">
         <f>EDATE(A234,1)</f>
         <v>42156</v>
@@ -8418,7 +8420,7 @@
       <c r="J235" s="10"/>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="22">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -8449,7 +8451,7 @@
       <c r="J236" s="10"/>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="22">
         <f t="shared" si="16"/>
         <v>42217</v>
@@ -8480,7 +8482,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="22"/>
       <c r="B238" s="19" t="s">
         <v>232</v>
@@ -8503,7 +8505,7 @@
       <c r="J238" s="10"/>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="22">
         <f>EDATE(A237,1)</f>
         <v>42248</v>
@@ -8536,7 +8538,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="22"/>
       <c r="B240" s="19" t="s">
         <v>234</v>
@@ -8559,7 +8561,7 @@
       <c r="J240" s="10"/>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="22">
         <f>EDATE(A239,1)</f>
         <v>42278</v>
@@ -8590,7 +8592,7 @@
       <c r="J241" s="10"/>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="22">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -8621,7 +8623,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="22"/>
       <c r="B243" s="19" t="s">
         <v>91</v>
@@ -8646,7 +8648,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="22"/>
       <c r="B244" s="19" t="s">
         <v>98</v>
@@ -8671,7 +8673,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="22"/>
       <c r="B245" s="19" t="s">
         <v>236</v>
@@ -8694,7 +8696,7 @@
       <c r="J245" s="10"/>
       <c r="K245" s="19"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="22">
         <f>EDATE(A242,1)</f>
         <v>42339</v>
@@ -8725,7 +8727,7 @@
       <c r="J246" s="10"/>
       <c r="K246" s="19"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="46"/>
       <c r="B247" s="19" t="s">
         <v>237</v>
@@ -8751,7 +8753,7 @@
       <c r="J247" s="10"/>
       <c r="K247" s="19"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="46" t="s">
         <v>238</v>
       </c>
@@ -8775,7 +8777,7 @@
       <c r="J248" s="10"/>
       <c r="K248" s="19"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="22">
         <v>42370</v>
       </c>
@@ -8805,7 +8807,7 @@
       <c r="J249" s="10"/>
       <c r="K249" s="19"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <f>EDATE(A249,1)</f>
         <v>42401</v>
@@ -8838,7 +8840,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="22"/>
       <c r="B251" s="19" t="s">
         <v>197</v>
@@ -8861,7 +8863,7 @@
       <c r="J251" s="10"/>
       <c r="K251" s="19"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="22">
         <f>EDATE(A250,1)</f>
         <v>42430</v>
@@ -8894,7 +8896,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="22"/>
       <c r="B253" s="19" t="s">
         <v>77</v>
@@ -8917,7 +8919,7 @@
       <c r="J253" s="10"/>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <f>EDATE(A252,1)</f>
         <v>42461</v>
@@ -8948,7 +8950,7 @@
       <c r="J254" s="10"/>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="22">
         <f t="shared" ref="A255:A265" si="17">EDATE(A254,1)</f>
         <v>42491</v>
@@ -8979,7 +8981,7 @@
       <c r="J255" s="10"/>
       <c r="K255" s="19"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="22">
         <f t="shared" si="17"/>
         <v>42522</v>
@@ -9010,7 +9012,7 @@
       <c r="J256" s="10"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="22">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -9041,7 +9043,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="22"/>
       <c r="B258" s="19" t="s">
         <v>241</v>
@@ -9064,7 +9066,7 @@
       <c r="J258" s="10"/>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="22">
         <f>EDATE(A257,1)</f>
         <v>42583</v>
@@ -9095,7 +9097,7 @@
       <c r="J259" s="10"/>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="22">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -9126,7 +9128,7 @@
       <c r="J260" s="10"/>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="22">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -9159,7 +9161,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="22"/>
       <c r="B262" s="19" t="s">
         <v>105</v>
@@ -9182,7 +9184,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="22"/>
       <c r="B263" s="19" t="s">
         <v>98</v>
@@ -9207,7 +9209,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="22">
         <f>EDATE(A261,1)</f>
         <v>42675</v>
@@ -9234,7 +9236,7 @@
       <c r="J264" s="10"/>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="22">
         <f t="shared" si="17"/>
         <v>42705</v>
@@ -9265,7 +9267,7 @@
       <c r="J265" s="10"/>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="46" t="s">
         <v>246</v>
       </c>
@@ -9289,7 +9291,7 @@
       <c r="J266" s="10"/>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>42736</v>
       </c>
@@ -9315,7 +9317,7 @@
       <c r="J267" s="10"/>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="22">
         <f>EDATE(A267,1)</f>
         <v>42767</v>
@@ -9348,7 +9350,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="22">
         <f t="shared" ref="A269:A277" si="18">EDATE(A268,1)</f>
         <v>42795</v>
@@ -9375,7 +9377,7 @@
       <c r="J269" s="10"/>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="22">
         <f t="shared" si="18"/>
         <v>42826</v>
@@ -9408,7 +9410,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="22">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -9435,7 +9437,7 @@
       <c r="J271" s="10"/>
       <c r="K271" s="19"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="22">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -9462,7 +9464,7 @@
       <c r="J272" s="10"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="22">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -9493,7 +9495,7 @@
       <c r="J273" s="10"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="22">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -9524,7 +9526,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="22"/>
       <c r="B275" s="19" t="s">
         <v>247</v>
@@ -9547,7 +9549,7 @@
       <c r="J275" s="10"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="22">
         <f>EDATE(A274,1)</f>
         <v>42979</v>
@@ -9578,7 +9580,7 @@
       <c r="J276" s="10"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="22">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -9609,7 +9611,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="22"/>
       <c r="B278" s="19" t="s">
         <v>85</v>
@@ -9632,7 +9634,7 @@
       <c r="J278" s="10"/>
       <c r="K278" s="19"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="22"/>
       <c r="B279" s="19" t="s">
         <v>250</v>
@@ -9655,7 +9657,7 @@
       <c r="J279" s="10"/>
       <c r="K279" s="19"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="22">
         <f>EDATE(A277,1)</f>
         <v>43040</v>
@@ -9688,7 +9690,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="22">
         <f>EDATE(A280,1)</f>
         <v>43070</v>
@@ -9721,7 +9723,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="46" t="s">
         <v>41</v>
       </c>
@@ -9745,7 +9747,7 @@
       <c r="J282" s="10"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>43101</v>
       </c>
@@ -9771,7 +9773,7 @@
       <c r="J283" s="10"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>43132</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="19" t="s">
         <v>60</v>
@@ -9831,7 +9833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38">
         <v>43160</v>
       </c>
@@ -9857,7 +9859,7 @@
       <c r="J286" s="10"/>
       <c r="K286" s="19"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>43191</v>
       </c>
@@ -9887,7 +9889,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39"/>
       <c r="B288" s="14" t="s">
         <v>54</v>
@@ -9915,7 +9917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>43221</v>
       </c>
@@ -9941,7 +9943,7 @@
       <c r="J289" s="10"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <v>43252</v>
       </c>
@@ -9967,7 +9969,7 @@
       <c r="J290" s="10"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>43282</v>
       </c>
@@ -9993,7 +9995,7 @@
       <c r="J291" s="10"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>43313</v>
       </c>
@@ -10019,7 +10021,7 @@
       <c r="J292" s="10"/>
       <c r="K292" s="19"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>43344</v>
       </c>
@@ -10045,7 +10047,7 @@
       <c r="J293" s="10"/>
       <c r="K293" s="19"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <v>43374</v>
       </c>
@@ -10071,7 +10073,7 @@
       <c r="J294" s="10"/>
       <c r="K294" s="19"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>43405</v>
       </c>
@@ -10097,7 +10099,7 @@
       <c r="J295" s="10"/>
       <c r="K295" s="19"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>43435</v>
       </c>
@@ -10123,7 +10125,7 @@
       <c r="J296" s="10"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="22" t="s">
         <v>46</v>
       </c>
@@ -10147,7 +10149,7 @@
       <c r="J297" s="10"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>43466</v>
       </c>
@@ -10173,7 +10175,7 @@
       <c r="J298" s="10"/>
       <c r="K298" s="19"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <v>43497</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>43525</v>
       </c>
@@ -10235,7 +10237,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>43556</v>
       </c>
@@ -10261,7 +10263,7 @@
       <c r="J301" s="10"/>
       <c r="K301" s="19"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>43586</v>
       </c>
@@ -10287,7 +10289,7 @@
       <c r="J302" s="10"/>
       <c r="K302" s="19"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>43617</v>
       </c>
@@ -10313,7 +10315,7 @@
       <c r="J303" s="10"/>
       <c r="K303" s="19"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>43647</v>
       </c>
@@ -10339,7 +10341,7 @@
       <c r="J304" s="10"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38">
         <v>43678</v>
       </c>
@@ -10365,7 +10367,7 @@
       <c r="J305" s="10"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>43709</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>43739</v>
       </c>
@@ -10423,7 +10425,7 @@
       <c r="J307" s="10"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38">
         <v>43770</v>
       </c>
@@ -10449,7 +10451,7 @@
       <c r="J308" s="10"/>
       <c r="K308" s="19"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>43800</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="19" t="s">
         <v>48</v>
@@ -10509,7 +10511,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38"/>
       <c r="B311" s="19" t="s">
         <v>43</v>
@@ -10535,7 +10537,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="22" t="s">
         <v>51</v>
       </c>
@@ -10559,7 +10561,7 @@
       <c r="J312" s="10"/>
       <c r="K312" s="19"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38">
         <v>43831</v>
       </c>
@@ -10585,7 +10587,7 @@
       <c r="J313" s="10"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>43862</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38"/>
       <c r="B315" s="19" t="s">
         <v>54</v>
@@ -10645,7 +10647,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>43891</v>
       </c>
@@ -10671,7 +10673,7 @@
       <c r="J316" s="10"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>43922</v>
       </c>
@@ -10697,7 +10699,7 @@
       <c r="J317" s="10"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38">
         <v>43952</v>
       </c>
@@ -10723,7 +10725,7 @@
       <c r="J318" s="10"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38">
         <v>43983</v>
       </c>
@@ -10753,7 +10755,7 @@
       <c r="J319" s="10"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>44013</v>
       </c>
@@ -10779,7 +10781,7 @@
       <c r="J320" s="10"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>44044</v>
       </c>
@@ -10805,7 +10807,7 @@
       <c r="J321" s="10"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38">
         <v>44075</v>
       </c>
@@ -10831,7 +10833,7 @@
       <c r="J322" s="10"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>44105</v>
       </c>
@@ -10857,7 +10859,7 @@
       <c r="J323" s="10"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38">
         <v>44136</v>
       </c>
@@ -10883,7 +10885,7 @@
       <c r="J324" s="10"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>44166</v>
       </c>
@@ -10913,7 +10915,7 @@
       <c r="J325" s="10"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="46" t="s">
         <v>55</v>
       </c>
@@ -10937,7 +10939,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38">
         <v>44197</v>
       </c>
@@ -10963,7 +10965,7 @@
       <c r="J327" s="10"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38">
         <v>44228</v>
       </c>
@@ -10989,7 +10991,7 @@
       <c r="J328" s="10"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>44256</v>
       </c>
@@ -11015,7 +11017,7 @@
       <c r="J329" s="10"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>44287</v>
       </c>
@@ -11041,7 +11043,7 @@
       <c r="J330" s="10"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38">
         <v>44317</v>
       </c>
@@ -11067,7 +11069,7 @@
       <c r="J331" s="10"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>44348</v>
       </c>
@@ -11093,7 +11095,7 @@
       <c r="J332" s="10"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38">
         <v>44378</v>
       </c>
@@ -11119,7 +11121,7 @@
       <c r="J333" s="10"/>
       <c r="K333" s="19"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <v>44409</v>
       </c>
@@ -11145,7 +11147,7 @@
       <c r="J334" s="10"/>
       <c r="K334" s="19"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>44440</v>
       </c>
@@ -11171,7 +11173,7 @@
       <c r="J335" s="10"/>
       <c r="K335" s="19"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38">
         <v>44470</v>
       </c>
@@ -11197,7 +11199,7 @@
       <c r="J336" s="10"/>
       <c r="K336" s="19"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38">
         <v>44501</v>
       </c>
@@ -11223,7 +11225,7 @@
       <c r="J337" s="10"/>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>44531</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="19" t="s">
         <v>54</v>
@@ -11283,7 +11285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="19" t="s">
         <v>258</v>
@@ -11294,7 +11296,7 @@
       </c>
       <c r="E340" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.39400000000003</v>
+        <v>140.64400000000003</v>
       </c>
       <c r="F340" s="19"/>
       <c r="G340" s="12" t="str">
@@ -11304,12 +11306,12 @@
       <c r="H340" s="37"/>
       <c r="I340" s="52">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.54200000000003</v>
+        <v>251.79200000000003</v>
       </c>
       <c r="J340" s="10"/>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="46" t="s">
         <v>57</v>
       </c>
@@ -11333,7 +11335,7 @@
       <c r="J341" s="10"/>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38">
         <v>44562</v>
       </c>
@@ -11359,7 +11361,7 @@
       <c r="J342" s="10"/>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>44593</v>
       </c>
@@ -11385,7 +11387,7 @@
       <c r="J343" s="10"/>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38">
         <v>44621</v>
       </c>
@@ -11411,7 +11413,7 @@
       <c r="J344" s="10"/>
       <c r="K344" s="48"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>44652</v>
       </c>
@@ -11437,7 +11439,7 @@
       <c r="J345" s="10"/>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>44682</v>
       </c>
@@ -11463,7 +11465,7 @@
       <c r="J346" s="10"/>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38">
         <v>44713</v>
       </c>
@@ -11493,7 +11495,7 @@
       <c r="J347" s="10"/>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38"/>
       <c r="B348" s="19" t="s">
         <v>43</v>
@@ -11519,7 +11521,7 @@
         <v>44903</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38">
         <v>44743</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>44774</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38"/>
       <c r="B351" s="19" t="s">
         <v>257</v>
@@ -11594,7 +11596,7 @@
       </c>
       <c r="E351" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.39400000000003</v>
+        <v>140.64400000000003</v>
       </c>
       <c r="F351" s="19"/>
       <c r="G351" s="12" t="str">
@@ -11604,14 +11606,14 @@
       <c r="H351" s="37"/>
       <c r="I351" s="52">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.54200000000003</v>
+        <v>251.79200000000003</v>
       </c>
       <c r="J351" s="10"/>
       <c r="K351" s="48">
         <v>44785</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38">
         <v>44805</v>
       </c>
@@ -11641,7 +11643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38">
         <v>44835</v>
       </c>
@@ -11667,7 +11669,7 @@
       <c r="J353" s="10"/>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>44866</v>
       </c>
@@ -11699,7 +11701,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>44896</v>
       </c>
@@ -11729,7 +11731,7 @@
       <c r="J355" s="10"/>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="46" t="s">
         <v>63</v>
       </c>
@@ -11753,7 +11755,7 @@
       <c r="J356" s="10"/>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>44927</v>
       </c>
@@ -11779,7 +11781,7 @@
       <c r="J357" s="10"/>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <v>44958</v>
       </c>
@@ -11811,7 +11813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>44986</v>
       </c>
@@ -11837,7 +11839,7 @@
       <c r="J359" s="10"/>
       <c r="K359" s="19"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>45017</v>
       </c>
@@ -11863,7 +11865,7 @@
       <c r="J360" s="10"/>
       <c r="K360" s="19"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>45047</v>
       </c>
@@ -11889,7 +11891,7 @@
       <c r="J361" s="10"/>
       <c r="K361" s="19"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>45078</v>
       </c>
@@ -11915,7 +11917,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>45108</v>
       </c>
@@ -11935,99 +11937,109 @@
       <c r="J363" s="10"/>
       <c r="K363" s="19"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>45139</v>
       </c>
       <c r="B364" s="19"/>
-      <c r="C364" s="12"/>
+      <c r="C364" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="37"/>
       <c r="E364" s="51"/>
       <c r="F364" s="19"/>
-      <c r="G364" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="37"/>
       <c r="I364" s="51"/>
       <c r="J364" s="10"/>
       <c r="K364" s="19"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>45170</v>
       </c>
       <c r="B365" s="19"/>
-      <c r="C365" s="12"/>
+      <c r="C365" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="37"/>
       <c r="E365" s="51"/>
       <c r="F365" s="19"/>
-      <c r="G365" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="37"/>
       <c r="I365" s="51"/>
       <c r="J365" s="10"/>
       <c r="K365" s="19"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>45200</v>
       </c>
       <c r="B366" s="19"/>
-      <c r="C366" s="12"/>
+      <c r="C366" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="37"/>
       <c r="E366" s="51"/>
       <c r="F366" s="19"/>
-      <c r="G366" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G366" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H366" s="37"/>
       <c r="I366" s="51"/>
       <c r="J366" s="10"/>
       <c r="K366" s="19"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>45231</v>
       </c>
       <c r="B367" s="19"/>
-      <c r="C367" s="12"/>
+      <c r="C367" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D367" s="37"/>
       <c r="E367" s="51"/>
       <c r="F367" s="19"/>
-      <c r="G367" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G367" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H367" s="37"/>
       <c r="I367" s="51"/>
       <c r="J367" s="10"/>
       <c r="K367" s="19"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>45261</v>
       </c>
       <c r="B368" s="19"/>
-      <c r="C368" s="12"/>
+      <c r="C368" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D368" s="37"/>
       <c r="E368" s="51"/>
       <c r="F368" s="19"/>
-      <c r="G368" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G368" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H368" s="37"/>
       <c r="I368" s="51"/>
       <c r="J368" s="10"/>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="39">
-        <v>45292</v>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="46" t="s">
+        <v>259</v>
       </c>
       <c r="B369" s="19"/>
       <c r="C369" s="12"/>
@@ -12043,9 +12055,9 @@
       <c r="J369" s="10"/>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B370" s="19"/>
       <c r="C370" s="12"/>
@@ -12061,9 +12073,9 @@
       <c r="J370" s="10"/>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B371" s="19"/>
       <c r="C371" s="12"/>
@@ -12079,9 +12091,9 @@
       <c r="J371" s="10"/>
       <c r="K371" s="19"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B372" s="19"/>
       <c r="C372" s="12"/>
@@ -12097,9 +12109,9 @@
       <c r="J372" s="10"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B373" s="19"/>
       <c r="C373" s="12"/>
@@ -12115,9 +12127,9 @@
       <c r="J373" s="10"/>
       <c r="K373" s="19"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B374" s="19"/>
       <c r="C374" s="12"/>
@@ -12133,9 +12145,9 @@
       <c r="J374" s="10"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B375" s="19"/>
       <c r="C375" s="12"/>
@@ -12151,8 +12163,10 @@
       <c r="J375" s="10"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="38"/>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="39">
+        <v>45474</v>
+      </c>
       <c r="B376" s="19"/>
       <c r="C376" s="12"/>
       <c r="D376" s="37"/>
@@ -12167,7 +12181,7 @@
       <c r="J376" s="10"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38"/>
       <c r="B377" s="19"/>
       <c r="C377" s="12"/>
@@ -12183,7 +12197,7 @@
       <c r="J377" s="10"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="19"/>
       <c r="C378" s="12"/>
@@ -12199,7 +12213,7 @@
       <c r="J378" s="10"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="19"/>
       <c r="C379" s="12"/>
@@ -12215,7 +12229,7 @@
       <c r="J379" s="10"/>
       <c r="K379" s="19"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38"/>
       <c r="B380" s="19"/>
       <c r="C380" s="12"/>
@@ -12231,7 +12245,7 @@
       <c r="J380" s="10"/>
       <c r="K380" s="19"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="19"/>
       <c r="C381" s="12"/>
@@ -12247,7 +12261,7 @@
       <c r="J381" s="10"/>
       <c r="K381" s="19"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38"/>
       <c r="B382" s="19"/>
       <c r="C382" s="12"/>
@@ -12263,7 +12277,7 @@
       <c r="J382" s="10"/>
       <c r="K382" s="19"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38"/>
       <c r="B383" s="19"/>
       <c r="C383" s="12"/>
@@ -12279,7 +12293,7 @@
       <c r="J383" s="10"/>
       <c r="K383" s="19"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38"/>
       <c r="B384" s="19"/>
       <c r="C384" s="12"/>
@@ -12295,7 +12309,7 @@
       <c r="J384" s="10"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="19"/>
       <c r="C385" s="12"/>
@@ -12311,7 +12325,7 @@
       <c r="J385" s="10"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38"/>
       <c r="B386" s="19"/>
       <c r="C386" s="12"/>
@@ -12327,7 +12341,7 @@
       <c r="J386" s="10"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="38"/>
       <c r="B387" s="19"/>
       <c r="C387" s="12"/>
@@ -12343,7 +12357,7 @@
       <c r="J387" s="10"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38"/>
       <c r="B388" s="19"/>
       <c r="C388" s="12"/>
@@ -12359,7 +12373,7 @@
       <c r="J388" s="10"/>
       <c r="K388" s="19"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="19"/>
       <c r="C389" s="12"/>
@@ -12375,7 +12389,7 @@
       <c r="J389" s="10"/>
       <c r="K389" s="19"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38"/>
       <c r="B390" s="19"/>
       <c r="C390" s="12"/>
@@ -12391,7 +12405,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38"/>
       <c r="B391" s="19"/>
       <c r="C391" s="12"/>
@@ -12407,7 +12421,7 @@
       <c r="J391" s="10"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38"/>
       <c r="B392" s="19"/>
       <c r="C392" s="12"/>
@@ -12423,7 +12437,7 @@
       <c r="J392" s="10"/>
       <c r="K392" s="19"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38"/>
       <c r="B393" s="19"/>
       <c r="C393" s="12"/>
@@ -12439,7 +12453,7 @@
       <c r="J393" s="10"/>
       <c r="K393" s="19"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38"/>
       <c r="B394" s="19"/>
       <c r="C394" s="12"/>
@@ -12455,7 +12469,7 @@
       <c r="J394" s="10"/>
       <c r="K394" s="19"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38"/>
       <c r="B395" s="19"/>
       <c r="C395" s="12"/>
@@ -12471,7 +12485,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="19"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38"/>
       <c r="B396" s="19"/>
       <c r="C396" s="12"/>
@@ -12487,7 +12501,7 @@
       <c r="J396" s="10"/>
       <c r="K396" s="19"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38"/>
       <c r="B397" s="19"/>
       <c r="C397" s="12"/>
@@ -12503,7 +12517,7 @@
       <c r="J397" s="10"/>
       <c r="K397" s="19"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="19"/>
       <c r="C398" s="12"/>
@@ -12519,7 +12533,7 @@
       <c r="J398" s="10"/>
       <c r="K398" s="19"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38"/>
       <c r="B399" s="19"/>
       <c r="C399" s="12"/>
@@ -12535,7 +12549,7 @@
       <c r="J399" s="10"/>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38"/>
       <c r="B400" s="19"/>
       <c r="C400" s="12"/>
@@ -12551,7 +12565,7 @@
       <c r="J400" s="10"/>
       <c r="K400" s="19"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="19"/>
       <c r="C401" s="12"/>
@@ -12567,7 +12581,7 @@
       <c r="J401" s="10"/>
       <c r="K401" s="19"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="38"/>
       <c r="B402" s="19"/>
       <c r="C402" s="12"/>
@@ -12583,7 +12597,7 @@
       <c r="J402" s="10"/>
       <c r="K402" s="19"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38"/>
       <c r="B403" s="19"/>
       <c r="C403" s="12"/>
@@ -12599,7 +12613,7 @@
       <c r="J403" s="10"/>
       <c r="K403" s="19"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38"/>
       <c r="B404" s="19"/>
       <c r="C404" s="12"/>
@@ -12615,7 +12629,7 @@
       <c r="J404" s="10"/>
       <c r="K404" s="19"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38"/>
       <c r="B405" s="19"/>
       <c r="C405" s="12"/>
@@ -12631,7 +12645,7 @@
       <c r="J405" s="10"/>
       <c r="K405" s="19"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38"/>
       <c r="B406" s="19"/>
       <c r="C406" s="12"/>
@@ -12647,7 +12661,7 @@
       <c r="J406" s="10"/>
       <c r="K406" s="19"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="19"/>
       <c r="C407" s="12"/>
@@ -12663,7 +12677,7 @@
       <c r="J407" s="10"/>
       <c r="K407" s="19"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38"/>
       <c r="B408" s="19"/>
       <c r="C408" s="12"/>
@@ -12679,7 +12693,7 @@
       <c r="J408" s="10"/>
       <c r="K408" s="19"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38"/>
       <c r="B409" s="19"/>
       <c r="C409" s="12"/>
@@ -12695,7 +12709,7 @@
       <c r="J409" s="10"/>
       <c r="K409" s="19"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38"/>
       <c r="B410" s="19"/>
       <c r="C410" s="12"/>
@@ -12711,7 +12725,7 @@
       <c r="J410" s="10"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38"/>
       <c r="B411" s="19"/>
       <c r="C411" s="12"/>
@@ -12727,7 +12741,7 @@
       <c r="J411" s="10"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="38"/>
       <c r="B412" s="19"/>
       <c r="C412" s="12"/>
@@ -12743,7 +12757,7 @@
       <c r="J412" s="10"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38"/>
       <c r="B413" s="19"/>
       <c r="C413" s="12"/>
@@ -12759,7 +12773,7 @@
       <c r="J413" s="10"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38"/>
       <c r="B414" s="19"/>
       <c r="C414" s="12"/>
@@ -12775,7 +12789,7 @@
       <c r="J414" s="10"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38"/>
       <c r="B415" s="19"/>
       <c r="C415" s="12"/>
@@ -12791,7 +12805,7 @@
       <c r="J415" s="10"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38"/>
       <c r="B416" s="19"/>
       <c r="C416" s="12"/>
@@ -12807,7 +12821,7 @@
       <c r="J416" s="10"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38"/>
       <c r="B417" s="19"/>
       <c r="C417" s="12"/>
@@ -12823,7 +12837,7 @@
       <c r="J417" s="10"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38"/>
       <c r="B418" s="19"/>
       <c r="C418" s="12"/>
@@ -12839,7 +12853,7 @@
       <c r="J418" s="10"/>
       <c r="K418" s="19"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38"/>
       <c r="B419" s="19"/>
       <c r="C419" s="12"/>
@@ -12855,7 +12869,7 @@
       <c r="J419" s="10"/>
       <c r="K419" s="19"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38"/>
       <c r="B420" s="19"/>
       <c r="C420" s="12"/>
@@ -12871,7 +12885,7 @@
       <c r="J420" s="10"/>
       <c r="K420" s="19"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
       <c r="B421" s="19"/>
       <c r="C421" s="12"/>
@@ -12887,7 +12901,7 @@
       <c r="J421" s="10"/>
       <c r="K421" s="19"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="19"/>
       <c r="C422" s="12"/>
@@ -12903,7 +12917,7 @@
       <c r="J422" s="10"/>
       <c r="K422" s="19"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38"/>
       <c r="B423" s="19"/>
       <c r="C423" s="12"/>
@@ -12919,7 +12933,7 @@
       <c r="J423" s="10"/>
       <c r="K423" s="19"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38"/>
       <c r="B424" s="19"/>
       <c r="C424" s="12"/>
@@ -12935,7 +12949,7 @@
       <c r="J424" s="10"/>
       <c r="K424" s="19"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38"/>
       <c r="B425" s="19"/>
       <c r="C425" s="12"/>
@@ -12951,7 +12965,7 @@
       <c r="J425" s="10"/>
       <c r="K425" s="19"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="38"/>
       <c r="B426" s="19"/>
       <c r="C426" s="12"/>
@@ -12967,7 +12981,7 @@
       <c r="J426" s="10"/>
       <c r="K426" s="19"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38"/>
       <c r="B427" s="19"/>
       <c r="C427" s="12"/>
@@ -12983,7 +12997,7 @@
       <c r="J427" s="10"/>
       <c r="K427" s="19"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38"/>
       <c r="B428" s="19"/>
       <c r="C428" s="12"/>
@@ -12999,7 +13013,7 @@
       <c r="J428" s="10"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38"/>
       <c r="B429" s="19"/>
       <c r="C429" s="12"/>
@@ -13015,7 +13029,7 @@
       <c r="J429" s="10"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
       <c r="B430" s="19"/>
       <c r="C430" s="12"/>
@@ -13031,7 +13045,7 @@
       <c r="J430" s="10"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38"/>
       <c r="B431" s="19"/>
       <c r="C431" s="12"/>
@@ -13047,7 +13061,7 @@
       <c r="J431" s="10"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
       <c r="B432" s="19"/>
       <c r="C432" s="12"/>
@@ -13063,7 +13077,7 @@
       <c r="J432" s="10"/>
       <c r="K432" s="19"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38"/>
       <c r="B433" s="19"/>
       <c r="C433" s="12"/>
@@ -13079,7 +13093,7 @@
       <c r="J433" s="10"/>
       <c r="K433" s="19"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38"/>
       <c r="B434" s="19"/>
       <c r="C434" s="12"/>
@@ -13095,7 +13109,7 @@
       <c r="J434" s="10"/>
       <c r="K434" s="19"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38"/>
       <c r="B435" s="19"/>
       <c r="C435" s="12"/>
@@ -13111,7 +13125,7 @@
       <c r="J435" s="10"/>
       <c r="K435" s="19"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38"/>
       <c r="B436" s="19"/>
       <c r="C436" s="12"/>
@@ -13127,7 +13141,7 @@
       <c r="J436" s="10"/>
       <c r="K436" s="19"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38"/>
       <c r="B437" s="19"/>
       <c r="C437" s="12"/>
@@ -13143,7 +13157,7 @@
       <c r="J437" s="10"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="19"/>
       <c r="C438" s="12"/>
@@ -13159,7 +13173,7 @@
       <c r="J438" s="10"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38"/>
       <c r="B439" s="19"/>
       <c r="C439" s="12"/>
@@ -13175,7 +13189,7 @@
       <c r="J439" s="10"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38"/>
       <c r="B440" s="19"/>
       <c r="C440" s="12"/>
@@ -13191,7 +13205,7 @@
       <c r="J440" s="10"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="38"/>
       <c r="B441" s="19"/>
       <c r="C441" s="12"/>
@@ -13207,7 +13221,7 @@
       <c r="J441" s="10"/>
       <c r="K441" s="19"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
       <c r="B442" s="19"/>
       <c r="C442" s="12"/>
@@ -13223,7 +13237,7 @@
       <c r="J442" s="10"/>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
       <c r="B443" s="19"/>
       <c r="C443" s="12"/>
@@ -13239,7 +13253,7 @@
       <c r="J443" s="10"/>
       <c r="K443" s="19"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
       <c r="B444" s="19"/>
       <c r="C444" s="12"/>
@@ -13255,7 +13269,7 @@
       <c r="J444" s="10"/>
       <c r="K444" s="19"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="19"/>
       <c r="C445" s="12"/>
@@ -13271,7 +13285,7 @@
       <c r="J445" s="10"/>
       <c r="K445" s="19"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38"/>
       <c r="B446" s="19"/>
       <c r="C446" s="12"/>
@@ -13287,7 +13301,7 @@
       <c r="J446" s="10"/>
       <c r="K446" s="19"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38"/>
       <c r="B447" s="19"/>
       <c r="C447" s="12"/>
@@ -13303,7 +13317,7 @@
       <c r="J447" s="10"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38"/>
       <c r="B448" s="19"/>
       <c r="C448" s="12"/>
@@ -13319,7 +13333,7 @@
       <c r="J448" s="10"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38"/>
       <c r="B449" s="19"/>
       <c r="C449" s="12"/>
@@ -13335,7 +13349,7 @@
       <c r="J449" s="10"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38"/>
       <c r="B450" s="19"/>
       <c r="C450" s="12"/>
@@ -13351,7 +13365,7 @@
       <c r="J450" s="10"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38"/>
       <c r="B451" s="19"/>
       <c r="C451" s="12"/>
@@ -13367,7 +13381,7 @@
       <c r="J451" s="10"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38"/>
       <c r="B452" s="19"/>
       <c r="C452" s="12"/>
@@ -13383,7 +13397,7 @@
       <c r="J452" s="10"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38"/>
       <c r="B453" s="19"/>
       <c r="C453" s="12"/>
@@ -13399,7 +13413,7 @@
       <c r="J453" s="10"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="19"/>
       <c r="C454" s="12"/>
@@ -13415,7 +13429,7 @@
       <c r="J454" s="10"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38"/>
       <c r="B455" s="19"/>
       <c r="C455" s="12"/>
@@ -13431,7 +13445,7 @@
       <c r="J455" s="10"/>
       <c r="K455" s="19"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="38"/>
       <c r="B456" s="19"/>
       <c r="C456" s="12"/>
@@ -13447,7 +13461,7 @@
       <c r="J456" s="10"/>
       <c r="K456" s="19"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38"/>
       <c r="B457" s="19"/>
       <c r="C457" s="12"/>
@@ -13463,7 +13477,7 @@
       <c r="J457" s="10"/>
       <c r="K457" s="19"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="19"/>
       <c r="C458" s="12"/>
@@ -13479,7 +13493,7 @@
       <c r="J458" s="10"/>
       <c r="K458" s="19"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38"/>
       <c r="B459" s="19"/>
       <c r="C459" s="12"/>
@@ -13495,7 +13509,7 @@
       <c r="J459" s="10"/>
       <c r="K459" s="19"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38"/>
       <c r="B460" s="19"/>
       <c r="C460" s="12"/>
@@ -13511,7 +13525,7 @@
       <c r="J460" s="10"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38"/>
       <c r="B461" s="19"/>
       <c r="C461" s="12"/>
@@ -13527,7 +13541,7 @@
       <c r="J461" s="10"/>
       <c r="K461" s="19"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="19"/>
       <c r="C462" s="12"/>
@@ -13543,7 +13557,7 @@
       <c r="J462" s="10"/>
       <c r="K462" s="19"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="38"/>
       <c r="B463" s="19"/>
       <c r="C463" s="12"/>
@@ -13559,7 +13573,7 @@
       <c r="J463" s="10"/>
       <c r="K463" s="19"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38"/>
       <c r="B464" s="19"/>
       <c r="C464" s="12"/>
@@ -13575,7 +13589,7 @@
       <c r="J464" s="10"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38"/>
       <c r="B465" s="19"/>
       <c r="C465" s="12"/>
@@ -13591,7 +13605,7 @@
       <c r="J465" s="10"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38"/>
       <c r="B466" s="19"/>
       <c r="C466" s="12"/>
@@ -13607,7 +13621,7 @@
       <c r="J466" s="10"/>
       <c r="K466" s="19"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="19"/>
       <c r="C467" s="12"/>
@@ -13623,7 +13637,7 @@
       <c r="J467" s="10"/>
       <c r="K467" s="19"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38"/>
       <c r="B468" s="19"/>
       <c r="C468" s="12"/>
@@ -13639,7 +13653,7 @@
       <c r="J468" s="10"/>
       <c r="K468" s="19"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="19"/>
       <c r="C469" s="12"/>
@@ -13655,7 +13669,7 @@
       <c r="J469" s="10"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="19"/>
       <c r="C470" s="12"/>
@@ -13671,7 +13685,7 @@
       <c r="J470" s="10"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
       <c r="B471" s="19"/>
       <c r="C471" s="12"/>
@@ -13687,7 +13701,7 @@
       <c r="J471" s="10"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38"/>
       <c r="B472" s="19"/>
       <c r="C472" s="12"/>
@@ -13703,7 +13717,7 @@
       <c r="J472" s="10"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
       <c r="B473" s="19"/>
       <c r="C473" s="12"/>
@@ -13719,7 +13733,7 @@
       <c r="J473" s="10"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38"/>
       <c r="B474" s="19"/>
       <c r="C474" s="12"/>
@@ -13735,7 +13749,7 @@
       <c r="J474" s="10"/>
       <c r="K474" s="19"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38"/>
       <c r="B475" s="19"/>
       <c r="C475" s="12"/>
@@ -13751,21 +13765,37 @@
       <c r="J475" s="10"/>
       <c r="K475" s="19"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A476" s="39"/>
-      <c r="B476" s="14"/>
-      <c r="C476" s="40"/>
-      <c r="D476" s="41"/>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="38"/>
+      <c r="B476" s="19"/>
+      <c r="C476" s="12"/>
+      <c r="D476" s="37"/>
       <c r="E476" s="51"/>
-      <c r="F476" s="14"/>
-      <c r="G476" s="40" t="str">
+      <c r="F476" s="19"/>
+      <c r="G476" s="12" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H476" s="41"/>
+      <c r="H476" s="37"/>
       <c r="I476" s="51"/>
-      <c r="J476" s="11"/>
-      <c r="K476" s="14"/>
+      <c r="J476" s="10"/>
+      <c r="K476" s="19"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="39"/>
+      <c r="B477" s="14"/>
+      <c r="C477" s="40"/>
+      <c r="D477" s="41"/>
+      <c r="E477" s="51"/>
+      <c r="F477" s="14"/>
+      <c r="G477" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="41"/>
+      <c r="I477" s="51"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13782,10 +13812,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13811,28 +13841,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>31</v>
       </c>
@@ -13845,7 +13875,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -13874,7 +13904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="D3" s="10">
@@ -13900,17 +13930,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
@@ -13931,7 +13961,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -13958,7 +13988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -13984,7 +14014,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -14010,7 +14040,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -14036,7 +14066,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -14062,7 +14092,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -14088,7 +14118,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -14114,7 +14144,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -14140,7 +14170,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -14160,7 +14190,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -14180,7 +14210,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -14200,7 +14230,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -14221,7 +14251,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -14242,7 +14272,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -14263,7 +14293,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -14284,7 +14314,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -14305,7 +14335,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -14326,7 +14356,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -14347,7 +14377,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -14368,7 +14398,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -14389,7 +14419,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -14410,7 +14440,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -14431,7 +14461,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -14452,7 +14482,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -14473,7 +14503,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -14494,7 +14524,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -14515,7 +14545,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -14536,7 +14566,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -14557,7 +14587,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -14578,7 +14608,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -14599,7 +14629,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -14620,7 +14650,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -14629,7 +14659,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -14638,7 +14668,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -14647,7 +14677,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -14656,7 +14686,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -14665,7 +14695,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -14674,7 +14704,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -14683,7 +14713,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -14692,7 +14722,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -14701,7 +14731,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -14710,7 +14740,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -14719,7 +14749,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -14728,7 +14758,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -14737,7 +14767,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -14746,7 +14776,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -14755,7 +14785,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -14764,7 +14794,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -14773,7 +14803,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -14782,7 +14812,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -14791,7 +14821,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -14800,7 +14830,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -14809,7 +14839,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -14818,7 +14848,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -14827,7 +14857,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -14836,7 +14866,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -14845,7 +14875,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -14854,7 +14884,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -14863,7 +14893,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -14872,7 +14902,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -14881,7 +14911,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MARY ANNE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="261">
   <si>
     <t>PERIOD</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1863,9 +1866,9 @@
   <dimension ref="A2:K477"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A358" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A349" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
+      <selection pane="bottomLeft" activeCell="K361" sqref="K361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2029,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.64400000000003</v>
+        <v>139.64400000000003</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="str">
@@ -11296,7 +11299,7 @@
       </c>
       <c r="E340" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.64400000000003</v>
+        <v>139.64400000000003</v>
       </c>
       <c r="F340" s="19"/>
       <c r="G340" s="12" t="str">
@@ -11596,7 +11599,7 @@
       </c>
       <c r="E351" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.64400000000003</v>
+        <v>139.64400000000003</v>
       </c>
       <c r="F351" s="19"/>
       <c r="G351" s="12" t="str">
@@ -11869,14 +11872,18 @@
       <c r="A361" s="38">
         <v>45047</v>
       </c>
-      <c r="B361" s="19"/>
+      <c r="B361" s="19" t="s">
+        <v>260</v>
+      </c>
       <c r="C361" s="12">
         <v>1.25</v>
       </c>
-      <c r="D361" s="37"/>
+      <c r="D361" s="37">
+        <v>1</v>
+      </c>
       <c r="E361" s="52">
         <f>SUM(C361,E360)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
-        <v>137.89399999999998</v>
+        <v>136.89399999999998</v>
       </c>
       <c r="F361" s="19"/>
       <c r="G361" s="12">
@@ -11889,7 +11896,9 @@
         <v>243.042</v>
       </c>
       <c r="J361" s="10"/>
-      <c r="K361" s="19"/>
+      <c r="K361" s="48">
+        <v>45069</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
